--- a/outputs/cb_senior_weekly.xlsx
+++ b/outputs/cb_senior_weekly.xlsx
@@ -545,10 +545,10 @@
         <v>2622.170759287083</v>
       </c>
       <c r="D2" t="n">
-        <v>2130.83274282409</v>
+        <v>2141.113029298742</v>
       </c>
       <c r="E2" t="n">
-        <v>2522.218973032368</v>
+        <v>2528.273368071629</v>
       </c>
       <c r="F2" t="n">
         <v>2622.170759287083</v>
@@ -607,10 +607,10 @@
         <v>2614.31429778867</v>
       </c>
       <c r="D3" t="n">
-        <v>2248.061498815784</v>
+        <v>2237.704082309912</v>
       </c>
       <c r="E3" t="n">
-        <v>2625.014443790141</v>
+        <v>2640.881996834622</v>
       </c>
       <c r="F3" t="n">
         <v>2614.31429778867</v>
@@ -669,10 +669,10 @@
         <v>2606.457836290257</v>
       </c>
       <c r="D4" t="n">
-        <v>2243.696192795906</v>
+        <v>2231.241606113903</v>
       </c>
       <c r="E4" t="n">
-        <v>2638.872109205235</v>
+        <v>2644.148950229694</v>
       </c>
       <c r="F4" t="n">
         <v>2606.457836290257</v>
@@ -731,10 +731,10 @@
         <v>2598.601374791843</v>
       </c>
       <c r="D5" t="n">
-        <v>2135.293783056343</v>
+        <v>2157.837054976761</v>
       </c>
       <c r="E5" t="n">
-        <v>2530.585526145586</v>
+        <v>2534.984002227652</v>
       </c>
       <c r="F5" t="n">
         <v>2598.601374791843</v>
@@ -793,10 +793,10 @@
         <v>2590.74491329343</v>
       </c>
       <c r="D6" t="n">
-        <v>2045.6469317426</v>
+        <v>2041.662262197769</v>
       </c>
       <c r="E6" t="n">
-        <v>2446.309188995269</v>
+        <v>2429.899255264796</v>
       </c>
       <c r="F6" t="n">
         <v>2590.74491329343</v>
@@ -855,10 +855,10 @@
         <v>2582.888451569611</v>
       </c>
       <c r="D7" t="n">
-        <v>1981.754144090047</v>
+        <v>1986.414911724276</v>
       </c>
       <c r="E7" t="n">
-        <v>2357.888186669239</v>
+        <v>2373.748354840752</v>
       </c>
       <c r="F7" t="n">
         <v>2582.888451569611</v>
@@ -917,10 +917,10 @@
         <v>2575.031989845792</v>
       </c>
       <c r="D8" t="n">
-        <v>1966.874682465727</v>
+        <v>1987.932732546659</v>
       </c>
       <c r="E8" t="n">
-        <v>2361.974242393339</v>
+        <v>2359.827442830698</v>
       </c>
       <c r="F8" t="n">
         <v>2575.031989845792</v>
@@ -979,10 +979,10 @@
         <v>2567.175528121973</v>
       </c>
       <c r="D9" t="n">
-        <v>1986.529378672516</v>
+        <v>1992.707708755767</v>
       </c>
       <c r="E9" t="n">
-        <v>2378.655383447714</v>
+        <v>2382.756370427895</v>
       </c>
       <c r="F9" t="n">
         <v>2567.175528121973</v>
@@ -1041,10 +1041,10 @@
         <v>2559.319066398155</v>
       </c>
       <c r="D10" t="n">
-        <v>1986.128384098191</v>
+        <v>1980.832636952353</v>
       </c>
       <c r="E10" t="n">
-        <v>2367.593446948229</v>
+        <v>2382.970178781806</v>
       </c>
       <c r="F10" t="n">
         <v>2559.319066398155</v>
@@ -1103,10 +1103,10 @@
         <v>2551.462604468201</v>
       </c>
       <c r="D11" t="n">
-        <v>2007.121891145708</v>
+        <v>1992.888479365639</v>
       </c>
       <c r="E11" t="n">
-        <v>2397.295415005422</v>
+        <v>2398.413054946051</v>
       </c>
       <c r="F11" t="n">
         <v>2551.462604468201</v>
@@ -1165,10 +1165,10 @@
         <v>2543.606142538248</v>
       </c>
       <c r="D12" t="n">
-        <v>2052.778263100534</v>
+        <v>2032.502508812426</v>
       </c>
       <c r="E12" t="n">
-        <v>2445.933057297209</v>
+        <v>2470.856419543719</v>
       </c>
       <c r="F12" t="n">
         <v>2543.606142538248</v>
@@ -1227,10 +1227,10 @@
         <v>2535.749680608294</v>
       </c>
       <c r="D13" t="n">
-        <v>2104.13124997497</v>
+        <v>2110.783659732728</v>
       </c>
       <c r="E13" t="n">
-        <v>2498.632064374837</v>
+        <v>2506.588745504255</v>
       </c>
       <c r="F13" t="n">
         <v>2535.749680608294</v>
@@ -1289,10 +1289,10 @@
         <v>2527.89321866701</v>
       </c>
       <c r="D14" t="n">
-        <v>2119.637587930556</v>
+        <v>2120.471457724716</v>
       </c>
       <c r="E14" t="n">
-        <v>2517.017146727904</v>
+        <v>2505.884098630496</v>
       </c>
       <c r="F14" t="n">
         <v>2527.89321866701</v>
@@ -1351,10 +1351,10 @@
         <v>2520.036756725727</v>
       </c>
       <c r="D15" t="n">
-        <v>2121.8761944909</v>
+        <v>2086.739095670499</v>
       </c>
       <c r="E15" t="n">
-        <v>2491.114783229517</v>
+        <v>2489.540295619987</v>
       </c>
       <c r="F15" t="n">
         <v>2520.036756725727</v>
@@ -1413,10 +1413,10 @@
         <v>2512.180294784444</v>
       </c>
       <c r="D16" t="n">
-        <v>2067.828799317005</v>
+        <v>2058.926322308605</v>
       </c>
       <c r="E16" t="n">
-        <v>2451.66288135278</v>
+        <v>2449.25367530593</v>
       </c>
       <c r="F16" t="n">
         <v>2512.180294784444</v>
@@ -1475,10 +1475,10 @@
         <v>2504.32383284316</v>
       </c>
       <c r="D17" t="n">
-        <v>2060.724570235825</v>
+        <v>2068.109296230009</v>
       </c>
       <c r="E17" t="n">
-        <v>2438.230513727802</v>
+        <v>2457.367282547439</v>
       </c>
       <c r="F17" t="n">
         <v>2504.32383284316</v>
@@ -1537,10 +1537,10 @@
         <v>2496.467371261375</v>
       </c>
       <c r="D18" t="n">
-        <v>2077.6525764093</v>
+        <v>2084.436957230384</v>
       </c>
       <c r="E18" t="n">
-        <v>2472.246622490575</v>
+        <v>2466.931162845185</v>
       </c>
       <c r="F18" t="n">
         <v>2496.467371261375</v>
@@ -1599,10 +1599,10 @@
         <v>2488.610909679589</v>
       </c>
       <c r="D19" t="n">
-        <v>2066.061969486342</v>
+        <v>2060.52945055239</v>
       </c>
       <c r="E19" t="n">
-        <v>2456.28860214187</v>
+        <v>2471.594375786763</v>
       </c>
       <c r="F19" t="n">
         <v>2488.610909679589</v>
@@ -1661,10 +1661,10 @@
         <v>2480.754448097804</v>
       </c>
       <c r="D20" t="n">
-        <v>2041.069533852415</v>
+        <v>2043.901054659647</v>
       </c>
       <c r="E20" t="n">
-        <v>2428.364291762945</v>
+        <v>2413.623678673001</v>
       </c>
       <c r="F20" t="n">
         <v>2480.754448097804</v>
@@ -1723,10 +1723,10 @@
         <v>2472.897986516018</v>
       </c>
       <c r="D21" t="n">
-        <v>2000.008415190907</v>
+        <v>1995.505571093052</v>
       </c>
       <c r="E21" t="n">
-        <v>2377.096440266753</v>
+        <v>2377.478011858289</v>
       </c>
       <c r="F21" t="n">
         <v>2472.897986516018</v>
@@ -1785,10 +1785,10 @@
         <v>2465.041524830754</v>
       </c>
       <c r="D22" t="n">
-        <v>1993.404452525531</v>
+        <v>1997.260821726584</v>
       </c>
       <c r="E22" t="n">
-        <v>2375.364714468661</v>
+        <v>2381.761064916342</v>
       </c>
       <c r="F22" t="n">
         <v>2465.041524830754</v>
@@ -1847,10 +1847,10 @@
         <v>2457.185063145489</v>
       </c>
       <c r="D23" t="n">
-        <v>2041.935279099615</v>
+        <v>2048.362823036945</v>
       </c>
       <c r="E23" t="n">
-        <v>2428.797386301676</v>
+        <v>2427.192310618337</v>
       </c>
       <c r="F23" t="n">
         <v>2457.185063145489</v>
@@ -1909,10 +1909,10 @@
         <v>2449.328601460226</v>
       </c>
       <c r="D24" t="n">
-        <v>2078.069893310081</v>
+        <v>2097.985972065023</v>
       </c>
       <c r="E24" t="n">
-        <v>2474.51396279516</v>
+        <v>2478.9040694232</v>
       </c>
       <c r="F24" t="n">
         <v>2449.328601460226</v>
@@ -1971,10 +1971,10 @@
         <v>2441.472139774962</v>
       </c>
       <c r="D25" t="n">
-        <v>2078.223679298135</v>
+        <v>2054.571156943685</v>
       </c>
       <c r="E25" t="n">
-        <v>2472.241796196091</v>
+        <v>2465.571295875228</v>
       </c>
       <c r="F25" t="n">
         <v>2441.472139774962</v>
@@ -2033,10 +2033,10 @@
         <v>2433.615710492913</v>
       </c>
       <c r="D26" t="n">
-        <v>2025.636737601052</v>
+        <v>2029.440712815345</v>
       </c>
       <c r="E26" t="n">
-        <v>2420.502629099299</v>
+        <v>2425.092106449796</v>
       </c>
       <c r="F26" t="n">
         <v>2433.615710492913</v>
@@ -2095,10 +2095,10 @@
         <v>2425.759281210865</v>
       </c>
       <c r="D27" t="n">
-        <v>2000.853554924488</v>
+        <v>1989.48916568901</v>
       </c>
       <c r="E27" t="n">
-        <v>2395.000151684116</v>
+        <v>2396.81360369426</v>
       </c>
       <c r="F27" t="n">
         <v>2425.759281210865</v>
@@ -2157,10 +2157,10 @@
         <v>2417.902851928816</v>
       </c>
       <c r="D28" t="n">
-        <v>2013.287275004703</v>
+        <v>1998.424650136363</v>
       </c>
       <c r="E28" t="n">
-        <v>2396.370724242041</v>
+        <v>2396.825923384007</v>
       </c>
       <c r="F28" t="n">
         <v>2417.902851928816</v>
@@ -2219,10 +2219,10 @@
         <v>2410.046433122628</v>
       </c>
       <c r="D29" t="n">
-        <v>2008.664141711952</v>
+        <v>2025.492912139731</v>
       </c>
       <c r="E29" t="n">
-        <v>2400.855082241601</v>
+        <v>2411.029482552618</v>
       </c>
       <c r="F29" t="n">
         <v>2410.046433122628</v>
@@ -2281,10 +2281,10 @@
         <v>2402.190014316439</v>
       </c>
       <c r="D30" t="n">
-        <v>2009.352372044867</v>
+        <v>2024.933367961193</v>
       </c>
       <c r="E30" t="n">
-        <v>2413.346204314683</v>
+        <v>2419.776704034737</v>
       </c>
       <c r="F30" t="n">
         <v>2402.190014316439</v>
@@ -2343,10 +2343,10 @@
         <v>2394.33359551025</v>
       </c>
       <c r="D31" t="n">
-        <v>1979.41722194277</v>
+        <v>1980.660379322453</v>
       </c>
       <c r="E31" t="n">
-        <v>2384.087145503519</v>
+        <v>2381.486120534796</v>
       </c>
       <c r="F31" t="n">
         <v>2394.33359551025</v>
@@ -2405,10 +2405,10 @@
         <v>2386.477176704061</v>
       </c>
       <c r="D32" t="n">
-        <v>1964.411011147744</v>
+        <v>1977.410786376173</v>
       </c>
       <c r="E32" t="n">
-        <v>2362.822903584146</v>
+        <v>2354.680262742749</v>
       </c>
       <c r="F32" t="n">
         <v>2386.477176704061</v>
@@ -2467,10 +2467,10 @@
         <v>2378.636611542688</v>
       </c>
       <c r="D33" t="n">
-        <v>1941.028282702403</v>
+        <v>1944.766589849064</v>
       </c>
       <c r="E33" t="n">
-        <v>2326.805958457368</v>
+        <v>2321.087103630062</v>
       </c>
       <c r="F33" t="n">
         <v>2378.636611542688</v>
@@ -2529,10 +2529,10 @@
         <v>2370.796046381314</v>
       </c>
       <c r="D34" t="n">
-        <v>1923.817798039639</v>
+        <v>1923.216147582457</v>
       </c>
       <c r="E34" t="n">
-        <v>2315.90230809994</v>
+        <v>2312.362281212808</v>
       </c>
       <c r="F34" t="n">
         <v>2370.796046381314</v>
@@ -2591,10 +2591,10 @@
         <v>2362.955481219941</v>
       </c>
       <c r="D35" t="n">
-        <v>1889.0124938586</v>
+        <v>1893.842547932203</v>
       </c>
       <c r="E35" t="n">
-        <v>2273.404404307643</v>
+        <v>2287.733366649861</v>
       </c>
       <c r="F35" t="n">
         <v>2362.955481219941</v>
@@ -2653,10 +2653,10 @@
         <v>2355.114916058567</v>
       </c>
       <c r="D36" t="n">
-        <v>1868.250787568694</v>
+        <v>1869.428061525348</v>
       </c>
       <c r="E36" t="n">
-        <v>2265.720569577807</v>
+        <v>2239.213751312267</v>
       </c>
       <c r="F36" t="n">
         <v>2355.114916058567</v>
@@ -2715,10 +2715,10 @@
         <v>2347.374528407854</v>
       </c>
       <c r="D37" t="n">
-        <v>1863.468264483482</v>
+        <v>1880.943905160074</v>
       </c>
       <c r="E37" t="n">
-        <v>2253.34573322492</v>
+        <v>2250.963093711567</v>
       </c>
       <c r="F37" t="n">
         <v>2347.374528407854</v>
@@ -2777,10 +2777,10 @@
         <v>2339.634140757141</v>
       </c>
       <c r="D38" t="n">
-        <v>1907.161314622726</v>
+        <v>1921.723234123636</v>
       </c>
       <c r="E38" t="n">
-        <v>2304.765858274618</v>
+        <v>2307.634428066215</v>
       </c>
       <c r="F38" t="n">
         <v>2339.634140757141</v>
@@ -2839,10 +2839,10 @@
         <v>2331.893753106428</v>
       </c>
       <c r="D39" t="n">
-        <v>1958.731368344109</v>
+        <v>1950.614191206917</v>
       </c>
       <c r="E39" t="n">
-        <v>2344.29476727154</v>
+        <v>2357.44169058293</v>
       </c>
       <c r="F39" t="n">
         <v>2331.893753106428</v>
@@ -2901,10 +2901,10 @@
         <v>2324.153365455715</v>
       </c>
       <c r="D40" t="n">
-        <v>1961.052420910251</v>
+        <v>1982.806307436654</v>
       </c>
       <c r="E40" t="n">
-        <v>2371.907878428696</v>
+        <v>2356.759545543252</v>
       </c>
       <c r="F40" t="n">
         <v>2324.153365455715</v>
@@ -2963,10 +2963,10 @@
         <v>2317.426196462707</v>
       </c>
       <c r="D41" t="n">
-        <v>1947.999823254325</v>
+        <v>1950.404952302227</v>
       </c>
       <c r="E41" t="n">
-        <v>2353.657094196992</v>
+        <v>2329.072381104311</v>
       </c>
       <c r="F41" t="n">
         <v>2317.426196462707</v>
@@ -3025,10 +3025,10 @@
         <v>2310.699027469699</v>
       </c>
       <c r="D42" t="n">
-        <v>1925.389702281657</v>
+        <v>1925.80574630457</v>
       </c>
       <c r="E42" t="n">
-        <v>2311.949682075671</v>
+        <v>2329.84966333653</v>
       </c>
       <c r="F42" t="n">
         <v>2310.699027469699</v>
@@ -3087,10 +3087,10 @@
         <v>2303.97185847669</v>
       </c>
       <c r="D43" t="n">
-        <v>1961.409018115018</v>
+        <v>1954.403725596461</v>
       </c>
       <c r="E43" t="n">
-        <v>2356.57087567983</v>
+        <v>2339.495741889094</v>
       </c>
       <c r="F43" t="n">
         <v>2303.97185847669</v>
@@ -3149,10 +3149,10 @@
         <v>2298.710455857568</v>
       </c>
       <c r="D44" t="n">
-        <v>1977.347996927046</v>
+        <v>1988.462215414997</v>
       </c>
       <c r="E44" t="n">
-        <v>2396.094173711292</v>
+        <v>2383.767918645812</v>
       </c>
       <c r="F44" t="n">
         <v>2298.710455857568</v>
@@ -3211,10 +3211,10 @@
         <v>2293.449053238446</v>
       </c>
       <c r="D45" t="n">
-        <v>1983.49809063621</v>
+        <v>2008.125333041978</v>
       </c>
       <c r="E45" t="n">
-        <v>2381.53676230257</v>
+        <v>2381.320198985402</v>
       </c>
       <c r="F45" t="n">
         <v>2293.449053238446</v>
@@ -3273,10 +3273,10 @@
         <v>2288.187650619324</v>
       </c>
       <c r="D46" t="n">
-        <v>1930.734254406373</v>
+        <v>1930.263836031379</v>
       </c>
       <c r="E46" t="n">
-        <v>2338.790103598297</v>
+        <v>2330.463615683603</v>
       </c>
       <c r="F46" t="n">
         <v>2288.187650619324</v>
@@ -3335,10 +3335,10 @@
         <v>2282.926248000202</v>
       </c>
       <c r="D47" t="n">
-        <v>1874.052958420813</v>
+        <v>1883.883466405526</v>
       </c>
       <c r="E47" t="n">
-        <v>2267.330746328192</v>
+        <v>2274.681566020174</v>
       </c>
       <c r="F47" t="n">
         <v>2282.926248000202</v>
@@ -3397,10 +3397,10 @@
         <v>2279.258239280875</v>
       </c>
       <c r="D48" t="n">
-        <v>1830.251455709453</v>
+        <v>1834.307576372584</v>
       </c>
       <c r="E48" t="n">
-        <v>2229.790673499077</v>
+        <v>2221.832116838598</v>
       </c>
       <c r="F48" t="n">
         <v>2279.258239280875</v>
@@ -3459,10 +3459,10 @@
         <v>2275.590230561547</v>
       </c>
       <c r="D49" t="n">
-        <v>1799.663644556847</v>
+        <v>1791.949948013957</v>
       </c>
       <c r="E49" t="n">
-        <v>2188.536926584489</v>
+        <v>2174.117889622781</v>
       </c>
       <c r="F49" t="n">
         <v>2275.590230561547</v>
@@ -3521,10 +3521,10 @@
         <v>2271.92222184222</v>
       </c>
       <c r="D50" t="n">
-        <v>1731.767088859028</v>
+        <v>1724.7461612155</v>
       </c>
       <c r="E50" t="n">
-        <v>2099.286447749032</v>
+        <v>2123.418412556962</v>
       </c>
       <c r="F50" t="n">
         <v>2271.92222184222</v>
@@ -3583,10 +3583,10 @@
         <v>2268.254213122892</v>
       </c>
       <c r="D51" t="n">
-        <v>1626.936566261538</v>
+        <v>1616.072179741521</v>
       </c>
       <c r="E51" t="n">
-        <v>2008.516944307249</v>
+        <v>2002.29496663658</v>
       </c>
       <c r="F51" t="n">
         <v>2268.254213122892</v>
@@ -3645,10 +3645,10 @@
         <v>2266.106945204286</v>
       </c>
       <c r="D52" t="n">
-        <v>1561.480238440428</v>
+        <v>1551.661250228696</v>
       </c>
       <c r="E52" t="n">
-        <v>1947.63009089246</v>
+        <v>1951.948588199191</v>
       </c>
       <c r="F52" t="n">
         <v>2266.106945204286</v>
@@ -3707,10 +3707,10 @@
         <v>2263.95967728568</v>
       </c>
       <c r="D53" t="n">
-        <v>1598.639055073509</v>
+        <v>1598.036770393255</v>
       </c>
       <c r="E53" t="n">
-        <v>2000.766041420966</v>
+        <v>1988.097006410612</v>
       </c>
       <c r="F53" t="n">
         <v>2263.95967728568</v>
@@ -3769,10 +3769,10 @@
         <v>2261.812409367074</v>
       </c>
       <c r="D54" t="n">
-        <v>1742.424774545144</v>
+        <v>1758.898024361905</v>
       </c>
       <c r="E54" t="n">
-        <v>2129.018402376925</v>
+        <v>2139.175864657482</v>
       </c>
       <c r="F54" t="n">
         <v>2261.812409367074</v>
@@ -3831,10 +3831,10 @@
         <v>2259.665141448467</v>
       </c>
       <c r="D55" t="n">
-        <v>1873.132629175162</v>
+        <v>1879.604518754826</v>
       </c>
       <c r="E55" t="n">
-        <v>2275.070023687224</v>
+        <v>2271.190987388476</v>
       </c>
       <c r="F55" t="n">
         <v>2259.665141448467</v>
@@ -3893,10 +3893,10 @@
         <v>2258.707451736953</v>
       </c>
       <c r="D56" t="n">
-        <v>1920.144959153624</v>
+        <v>1901.921490077171</v>
       </c>
       <c r="E56" t="n">
-        <v>2286.024913991215</v>
+        <v>2299.198612058066</v>
       </c>
       <c r="F56" t="n">
         <v>2258.707451736953</v>
@@ -3955,10 +3955,10 @@
         <v>2257.749762025438</v>
       </c>
       <c r="D57" t="n">
-        <v>1809.619752580273</v>
+        <v>1832.16290485231</v>
       </c>
       <c r="E57" t="n">
-        <v>2205.158190770592</v>
+        <v>2225.703739689017</v>
       </c>
       <c r="F57" t="n">
         <v>2257.749762025438</v>
@@ -4017,10 +4017,10 @@
         <v>2256.792072313924</v>
       </c>
       <c r="D58" t="n">
-        <v>1713.422745991208</v>
+        <v>1726.798310385638</v>
       </c>
       <c r="E58" t="n">
-        <v>2098.853985195007</v>
+        <v>2117.152127722425</v>
       </c>
       <c r="F58" t="n">
         <v>2256.792072313924</v>
@@ -4079,10 +4079,10 @@
         <v>2256.47268438596</v>
       </c>
       <c r="D59" t="n">
-        <v>1658.964519615049</v>
+        <v>1650.456005166156</v>
       </c>
       <c r="E59" t="n">
-        <v>2062.9136119976</v>
+        <v>2048.047521219162</v>
       </c>
       <c r="F59" t="n">
         <v>2256.47268438596</v>
@@ -4141,10 +4141,10 @@
         <v>2256.153296457996</v>
       </c>
       <c r="D60" t="n">
-        <v>1652.798389079333</v>
+        <v>1667.305160776709</v>
       </c>
       <c r="E60" t="n">
-        <v>2040.88323828495</v>
+        <v>2055.088419761429</v>
       </c>
       <c r="F60" t="n">
         <v>2256.153296457996</v>
@@ -4203,10 +4203,10 @@
         <v>2255.833908530033</v>
       </c>
       <c r="D61" t="n">
-        <v>1680.25559594268</v>
+        <v>1671.330985762029</v>
       </c>
       <c r="E61" t="n">
-        <v>2064.585573489103</v>
+        <v>2072.513978190806</v>
       </c>
       <c r="F61" t="n">
         <v>2255.833908530033</v>
@@ -4265,10 +4265,10 @@
         <v>2255.514520602069</v>
       </c>
       <c r="D62" t="n">
-        <v>1682.056444462429</v>
+        <v>1663.055873609394</v>
       </c>
       <c r="E62" t="n">
-        <v>2069.009997652267</v>
+        <v>2064.691030266885</v>
       </c>
       <c r="F62" t="n">
         <v>2255.514520602069</v>
@@ -4327,10 +4327,10 @@
         <v>2255.19513287292</v>
       </c>
       <c r="D63" t="n">
-        <v>1707.707441598239</v>
+        <v>1710.215157547196</v>
       </c>
       <c r="E63" t="n">
-        <v>2083.328452883154</v>
+        <v>2105.051439815956</v>
       </c>
       <c r="F63" t="n">
         <v>2255.19513287292</v>
@@ -4389,10 +4389,10 @@
         <v>2254.87574514377</v>
       </c>
       <c r="D64" t="n">
-        <v>1762.100583542124</v>
+        <v>1751.829024631904</v>
       </c>
       <c r="E64" t="n">
-        <v>2144.600321782368</v>
+        <v>2150.485860474192</v>
       </c>
       <c r="F64" t="n">
         <v>2254.87574514377</v>
@@ -4451,10 +4451,10 @@
         <v>2254.556357414621</v>
       </c>
       <c r="D65" t="n">
-        <v>1821.871554620178</v>
+        <v>1817.469152484032</v>
       </c>
       <c r="E65" t="n">
-        <v>2205.371980243841</v>
+        <v>2224.338714427504</v>
       </c>
       <c r="F65" t="n">
         <v>2254.556357414621</v>
@@ -4513,10 +4513,10 @@
         <v>2254.236969685472</v>
       </c>
       <c r="D66" t="n">
-        <v>1838.147522010293</v>
+        <v>1837.035671995558</v>
       </c>
       <c r="E66" t="n">
-        <v>2237.847186297528</v>
+        <v>2230.036120655589</v>
       </c>
       <c r="F66" t="n">
         <v>2254.236969685472</v>
@@ -4575,10 +4575,10 @@
         <v>2253.917581956322</v>
       </c>
       <c r="D67" t="n">
-        <v>1825.757194036512</v>
+        <v>1845.779186464632</v>
       </c>
       <c r="E67" t="n">
-        <v>2223.865215096921</v>
+        <v>2228.285527237125</v>
       </c>
       <c r="F67" t="n">
         <v>2253.917581956322</v>
@@ -4637,10 +4637,10 @@
         <v>2253.598194227173</v>
       </c>
       <c r="D68" t="n">
-        <v>1806.612664839121</v>
+        <v>1810.210768569986</v>
       </c>
       <c r="E68" t="n">
-        <v>2193.212494040232</v>
+        <v>2199.086222818319</v>
       </c>
       <c r="F68" t="n">
         <v>2253.598194227173</v>
@@ -4699,10 +4699,10 @@
         <v>2253.278806498024</v>
       </c>
       <c r="D69" t="n">
-        <v>1798.853149036173</v>
+        <v>1819.397005801655</v>
       </c>
       <c r="E69" t="n">
-        <v>2210.765924939827</v>
+        <v>2187.485123088701</v>
       </c>
       <c r="F69" t="n">
         <v>2253.278806498024</v>
@@ -4761,10 +4761,10 @@
         <v>2252.959418768875</v>
       </c>
       <c r="D70" t="n">
-        <v>1827.819044664096</v>
+        <v>1822.363784215291</v>
       </c>
       <c r="E70" t="n">
-        <v>2221.176149112696</v>
+        <v>2228.800908468304</v>
       </c>
       <c r="F70" t="n">
         <v>2252.959418768875</v>
@@ -4823,10 +4823,10 @@
         <v>2252.640031039725</v>
       </c>
       <c r="D71" t="n">
-        <v>1848.748342160556</v>
+        <v>1848.891619340638</v>
       </c>
       <c r="E71" t="n">
-        <v>2227.469787170141</v>
+        <v>2244.564144899007</v>
       </c>
       <c r="F71" t="n">
         <v>2252.640031039725</v>
@@ -4885,10 +4885,10 @@
         <v>2252.320643310576</v>
       </c>
       <c r="D72" t="n">
-        <v>1812.871220171668</v>
+        <v>1821.51138396791</v>
       </c>
       <c r="E72" t="n">
-        <v>2204.432375792197</v>
+        <v>2197.415212509013</v>
       </c>
       <c r="F72" t="n">
         <v>2252.320643310576</v>
@@ -4947,10 +4947,10 @@
         <v>2252.001255581427</v>
       </c>
       <c r="D73" t="n">
-        <v>1760.601160793523</v>
+        <v>1769.084320445523</v>
       </c>
       <c r="E73" t="n">
-        <v>2147.277371178028</v>
+        <v>2161.468378939023</v>
       </c>
       <c r="F73" t="n">
         <v>2252.001255581427</v>
@@ -5009,10 +5009,10 @@
         <v>2251.681867852278</v>
       </c>
       <c r="D74" t="n">
-        <v>1781.534176543166</v>
+        <v>1772.840770752892</v>
       </c>
       <c r="E74" t="n">
-        <v>2158.977142505301</v>
+        <v>2162.029909934509</v>
       </c>
       <c r="F74" t="n">
         <v>2251.681867852278</v>
@@ -5071,10 +5071,10 @@
         <v>2251.362480123129</v>
       </c>
       <c r="D75" t="n">
-        <v>1837.273753540741</v>
+        <v>1833.384628992163</v>
       </c>
       <c r="E75" t="n">
-        <v>2223.764601576823</v>
+        <v>2213.06513547547</v>
       </c>
       <c r="F75" t="n">
         <v>2251.362480123129</v>
@@ -5133,10 +5133,10 @@
         <v>2251.043092393979</v>
       </c>
       <c r="D76" t="n">
-        <v>1871.231866941536</v>
+        <v>1874.431212382798</v>
       </c>
       <c r="E76" t="n">
-        <v>2277.995463538918</v>
+        <v>2280.142724476695</v>
       </c>
       <c r="F76" t="n">
         <v>2251.043092393979</v>
@@ -5195,10 +5195,10 @@
         <v>2250.72370466483</v>
       </c>
       <c r="D77" t="n">
-        <v>1907.466106345905</v>
+        <v>1900.683895369628</v>
       </c>
       <c r="E77" t="n">
-        <v>2295.523569371595</v>
+        <v>2281.10845884117</v>
       </c>
       <c r="F77" t="n">
         <v>2250.72370466483</v>
@@ -5257,10 +5257,10 @@
         <v>2250.404316935681</v>
       </c>
       <c r="D78" t="n">
-        <v>1866.95540010329</v>
+        <v>1860.101799483806</v>
       </c>
       <c r="E78" t="n">
-        <v>2259.93341811825</v>
+        <v>2243.94143725659</v>
       </c>
       <c r="F78" t="n">
         <v>2250.404316935681</v>
@@ -5319,10 +5319,10 @@
         <v>2250.084929206531</v>
       </c>
       <c r="D79" t="n">
-        <v>1815.691506877723</v>
+        <v>1820.84250734344</v>
       </c>
       <c r="E79" t="n">
-        <v>2221.465499711729</v>
+        <v>2207.952882332514</v>
       </c>
       <c r="F79" t="n">
         <v>2250.084929206531</v>
@@ -5381,10 +5381,10 @@
         <v>2249.765541477382</v>
       </c>
       <c r="D80" t="n">
-        <v>1819.737484562779</v>
+        <v>1823.640087551241</v>
       </c>
       <c r="E80" t="n">
-        <v>2203.997776426727</v>
+        <v>2207.173384000102</v>
       </c>
       <c r="F80" t="n">
         <v>2249.765541477382</v>
@@ -5443,10 +5443,10 @@
         <v>2249.446153748233</v>
       </c>
       <c r="D81" t="n">
-        <v>1847.334617762686</v>
+        <v>1861.189731955381</v>
       </c>
       <c r="E81" t="n">
-        <v>2244.929645655183</v>
+        <v>2250.207973994905</v>
       </c>
       <c r="F81" t="n">
         <v>2249.446153748233</v>
@@ -5505,10 +5505,10 @@
         <v>2249.126766019083</v>
       </c>
       <c r="D82" t="n">
-        <v>1880.179097043572</v>
+        <v>1865.900584187501</v>
       </c>
       <c r="E82" t="n">
-        <v>2254.335438521617</v>
+        <v>2243.602130434734</v>
       </c>
       <c r="F82" t="n">
         <v>2249.126766019083</v>
@@ -5567,10 +5567,10 @@
         <v>2248.807378289934</v>
       </c>
       <c r="D83" t="n">
-        <v>1846.546504898725</v>
+        <v>1850.035916967107</v>
       </c>
       <c r="E83" t="n">
-        <v>2242.417475880907</v>
+        <v>2245.857785006653</v>
       </c>
       <c r="F83" t="n">
         <v>2248.807378289934</v>
@@ -5629,10 +5629,10 @@
         <v>2248.487990560785</v>
       </c>
       <c r="D84" t="n">
-        <v>1831.551525832562</v>
+        <v>1828.832017413747</v>
       </c>
       <c r="E84" t="n">
-        <v>2206.386785725391</v>
+        <v>2217.495386134516</v>
       </c>
       <c r="F84" t="n">
         <v>2248.487990560785</v>
@@ -5691,10 +5691,10 @@
         <v>2248.168602831636</v>
       </c>
       <c r="D85" t="n">
-        <v>1810.108716520019</v>
+        <v>1818.097330331131</v>
       </c>
       <c r="E85" t="n">
-        <v>2210.768271477406</v>
+        <v>2194.080304354453</v>
       </c>
       <c r="F85" t="n">
         <v>2248.168602831636</v>
@@ -5753,10 +5753,10 @@
         <v>2247.849215102487</v>
       </c>
       <c r="D86" t="n">
-        <v>1812.444253592428</v>
+        <v>1801.460256569259</v>
       </c>
       <c r="E86" t="n">
-        <v>2178.106085883688</v>
+        <v>2197.820899160129</v>
       </c>
       <c r="F86" t="n">
         <v>2247.849215102487</v>
@@ -5815,10 +5815,10 @@
         <v>2247.529827373337</v>
       </c>
       <c r="D87" t="n">
-        <v>1795.600352268124</v>
+        <v>1785.432342987305</v>
       </c>
       <c r="E87" t="n">
-        <v>2192.829465045915</v>
+        <v>2177.42145526495</v>
       </c>
       <c r="F87" t="n">
         <v>2247.529827373337</v>
@@ -5877,10 +5877,10 @@
         <v>2247.210439644188</v>
       </c>
       <c r="D88" t="n">
-        <v>1761.74306422641</v>
+        <v>1769.929541587251</v>
       </c>
       <c r="E88" t="n">
-        <v>2134.024057562579</v>
+        <v>2157.215357936699</v>
       </c>
       <c r="F88" t="n">
         <v>2247.210439644188</v>
@@ -5939,10 +5939,10 @@
         <v>2246.891051915039</v>
       </c>
       <c r="D89" t="n">
-        <v>1750.278684729948</v>
+        <v>1766.775767019855</v>
       </c>
       <c r="E89" t="n">
-        <v>2158.731143093662</v>
+        <v>2148.121363206637</v>
       </c>
       <c r="F89" t="n">
         <v>2246.891051915039</v>
@@ -6001,10 +6001,10 @@
         <v>2246.571664185889</v>
       </c>
       <c r="D90" t="n">
-        <v>1802.637501753105</v>
+        <v>1815.344157179252</v>
       </c>
       <c r="E90" t="n">
-        <v>2193.311180648401</v>
+        <v>2186.024696773767</v>
       </c>
       <c r="F90" t="n">
         <v>2246.571664185889</v>
@@ -6063,10 +6063,10 @@
         <v>2246.25227645674</v>
       </c>
       <c r="D91" t="n">
-        <v>1862.923894683538</v>
+        <v>1863.327995779105</v>
       </c>
       <c r="E91" t="n">
-        <v>2246.812987984424</v>
+        <v>2256.402244676578</v>
       </c>
       <c r="F91" t="n">
         <v>2246.25227645674</v>
@@ -6125,10 +6125,10 @@
         <v>2245.932888727591</v>
       </c>
       <c r="D92" t="n">
-        <v>1876.154714766715</v>
+        <v>1879.920446060545</v>
       </c>
       <c r="E92" t="n">
-        <v>2282.795126194751</v>
+        <v>2273.970211730742</v>
       </c>
       <c r="F92" t="n">
         <v>2245.932888727591</v>
@@ -6187,10 +6187,10 @@
         <v>2245.613500998441</v>
       </c>
       <c r="D93" t="n">
-        <v>1881.280533824395</v>
+        <v>1875.593166856772</v>
       </c>
       <c r="E93" t="n">
-        <v>2276.725272519583</v>
+        <v>2284.466228332206</v>
       </c>
       <c r="F93" t="n">
         <v>2245.613500998441</v>
@@ -6249,10 +6249,10 @@
         <v>2245.294113269292</v>
       </c>
       <c r="D94" t="n">
-        <v>1864.52209730646</v>
+        <v>1862.578470963359</v>
       </c>
       <c r="E94" t="n">
-        <v>2258.994962655299</v>
+        <v>2251.245110729004</v>
       </c>
       <c r="F94" t="n">
         <v>2245.294113269292</v>
@@ -6311,10 +6311,10 @@
         <v>2244.974725540143</v>
       </c>
       <c r="D95" t="n">
-        <v>1889.613685445972</v>
+        <v>1903.807086445806</v>
       </c>
       <c r="E95" t="n">
-        <v>2281.572011054848</v>
+        <v>2302.146138347101</v>
       </c>
       <c r="F95" t="n">
         <v>2244.974725540143</v>
@@ -6373,10 +6373,10 @@
         <v>2244.655337810994</v>
       </c>
       <c r="D96" t="n">
-        <v>1932.650742601643</v>
+        <v>1943.89869862302</v>
       </c>
       <c r="E96" t="n">
-        <v>2322.020640387575</v>
+        <v>2324.341678390255</v>
       </c>
       <c r="F96" t="n">
         <v>2244.655337810994</v>
@@ -6435,10 +6435,10 @@
         <v>2244.335950081844</v>
       </c>
       <c r="D97" t="n">
-        <v>1959.482142822556</v>
+        <v>1944.684278122021</v>
       </c>
       <c r="E97" t="n">
-        <v>2343.014404237227</v>
+        <v>2331.843288165671</v>
       </c>
       <c r="F97" t="n">
         <v>2244.335950081844</v>
@@ -6497,10 +6497,10 @@
         <v>2244.016562352695</v>
       </c>
       <c r="D98" t="n">
-        <v>1903.946569506904</v>
+        <v>1911.157257961315</v>
       </c>
       <c r="E98" t="n">
-        <v>2296.988516841023</v>
+        <v>2294.942070288525</v>
       </c>
       <c r="F98" t="n">
         <v>2244.016562352695</v>
@@ -6559,10 +6559,10 @@
         <v>2243.697174623546</v>
       </c>
       <c r="D99" t="n">
-        <v>1862.727637188283</v>
+        <v>1832.086771540435</v>
       </c>
       <c r="E99" t="n">
-        <v>2233.201279021394</v>
+        <v>2236.62133812768</v>
       </c>
       <c r="F99" t="n">
         <v>2243.697174623546</v>
@@ -6621,10 +6621,10 @@
         <v>2243.377786894397</v>
       </c>
       <c r="D100" t="n">
-        <v>1814.721911812789</v>
+        <v>1796.732153966029</v>
       </c>
       <c r="E100" t="n">
-        <v>2200.570777031206</v>
+        <v>2197.560035630814</v>
       </c>
       <c r="F100" t="n">
         <v>2243.377786894397</v>
@@ -6683,10 +6683,10 @@
         <v>2243.058399165247</v>
       </c>
       <c r="D101" t="n">
-        <v>1769.929921079462</v>
+        <v>1761.12073065544</v>
       </c>
       <c r="E101" t="n">
-        <v>2161.164797132441</v>
+        <v>2173.415706228068</v>
       </c>
       <c r="F101" t="n">
         <v>2243.058399165247</v>
@@ -6745,10 +6745,10 @@
         <v>2242.739011436098</v>
       </c>
       <c r="D102" t="n">
-        <v>1706.827985476052</v>
+        <v>1716.457285530162</v>
       </c>
       <c r="E102" t="n">
-        <v>2102.784776315722</v>
+        <v>2115.82452452434</v>
       </c>
       <c r="F102" t="n">
         <v>2242.739011436098</v>
@@ -6807,10 +6807,10 @@
         <v>2242.419623706949</v>
       </c>
       <c r="D103" t="n">
-        <v>1602.661518193403</v>
+        <v>1604.19631969902</v>
       </c>
       <c r="E103" t="n">
-        <v>1999.470910594125</v>
+        <v>1997.92518634579</v>
       </c>
       <c r="F103" t="n">
         <v>2242.419623706949</v>
@@ -6869,10 +6869,10 @@
         <v>2242.100235977799</v>
       </c>
       <c r="D104" t="n">
-        <v>1545.542954234657</v>
+        <v>1533.042887370319</v>
       </c>
       <c r="E104" t="n">
-        <v>1921.976205401671</v>
+        <v>1930.168274293575</v>
       </c>
       <c r="F104" t="n">
         <v>2242.100235977799</v>
@@ -6931,10 +6931,10 @@
         <v>2241.78084824865</v>
       </c>
       <c r="D105" t="n">
-        <v>1561.331102056198</v>
+        <v>1564.388823347808</v>
       </c>
       <c r="E105" t="n">
-        <v>1958.646332468395</v>
+        <v>1956.696772674318</v>
       </c>
       <c r="F105" t="n">
         <v>2241.78084824865</v>
@@ -6993,10 +6993,10 @@
         <v>2241.461460519501</v>
       </c>
       <c r="D106" t="n">
-        <v>1709.464504159123</v>
+        <v>1691.92339316249</v>
       </c>
       <c r="E106" t="n">
-        <v>2092.514232457665</v>
+        <v>2088.833542788121</v>
       </c>
       <c r="F106" t="n">
         <v>2241.461460519501</v>
@@ -7055,10 +7055,10 @@
         <v>2241.142072790352</v>
       </c>
       <c r="D107" t="n">
-        <v>1837.417682648127</v>
+        <v>1839.480036459564</v>
       </c>
       <c r="E107" t="n">
-        <v>2240.524748971708</v>
+        <v>2244.105712007951</v>
       </c>
       <c r="F107" t="n">
         <v>2241.142072790352</v>
@@ -7117,10 +7117,10 @@
         <v>2240.822685061202</v>
       </c>
       <c r="D108" t="n">
-        <v>1878.704813789337</v>
+        <v>1891.603614690798</v>
       </c>
       <c r="E108" t="n">
-        <v>2284.807555937482</v>
+        <v>2272.831510014481</v>
       </c>
       <c r="F108" t="n">
         <v>2240.822685061202</v>
@@ -7179,10 +7179,10 @@
         <v>2240.503297332053</v>
       </c>
       <c r="D109" t="n">
-        <v>1827.068872957971</v>
+        <v>1837.208784069244</v>
       </c>
       <c r="E109" t="n">
-        <v>2200.545742534218</v>
+        <v>2212.426004713392</v>
       </c>
       <c r="F109" t="n">
         <v>2240.503297332053</v>
@@ -7241,10 +7241,10 @@
         <v>2240.183909602904</v>
       </c>
       <c r="D110" t="n">
-        <v>1712.6673537196</v>
+        <v>1712.546159706362</v>
       </c>
       <c r="E110" t="n">
-        <v>2105.051778903004</v>
+        <v>2103.733552602935</v>
       </c>
       <c r="F110" t="n">
         <v>2240.183909602904</v>
@@ -7303,10 +7303,10 @@
         <v>2239.864521873755</v>
       </c>
       <c r="D111" t="n">
-        <v>1648.441968950451</v>
+        <v>1645.524838391298</v>
       </c>
       <c r="E111" t="n">
-        <v>2021.832086742588</v>
+        <v>2034.679827868518</v>
       </c>
       <c r="F111" t="n">
         <v>2239.864521873755</v>
@@ -7365,10 +7365,10 @@
         <v>2239.545134144606</v>
       </c>
       <c r="D112" t="n">
-        <v>1632.548073017472</v>
+        <v>1649.685536846526</v>
       </c>
       <c r="E112" t="n">
-        <v>2021.25793713348</v>
+        <v>2026.621417822119</v>
       </c>
       <c r="F112" t="n">
         <v>2239.545134144606</v>
@@ -7427,10 +7427,10 @@
         <v>2239.225746415456</v>
       </c>
       <c r="D113" t="n">
-        <v>1660.288574817804</v>
+        <v>1665.442824103859</v>
       </c>
       <c r="E113" t="n">
-        <v>2049.682673885968</v>
+        <v>2037.766401673458</v>
       </c>
       <c r="F113" t="n">
         <v>2239.225746415456</v>
@@ -7489,10 +7489,10 @@
         <v>2238.906358686307</v>
       </c>
       <c r="D114" t="n">
-        <v>1659.985294901656</v>
+        <v>1658.063872019865</v>
       </c>
       <c r="E114" t="n">
-        <v>2055.497311530968</v>
+        <v>2054.890366591859</v>
       </c>
       <c r="F114" t="n">
         <v>2238.906358686307</v>
@@ -7551,10 +7551,10 @@
         <v>2238.586970957158</v>
       </c>
       <c r="D115" t="n">
-        <v>1667.825376427712</v>
+        <v>1692.426583794544</v>
       </c>
       <c r="E115" t="n">
-        <v>2063.206736599301</v>
+        <v>2088.521334937991</v>
       </c>
       <c r="F115" t="n">
         <v>2238.586970957158</v>
@@ -7613,10 +7613,10 @@
         <v>2238.267583228008</v>
       </c>
       <c r="D116" t="n">
-        <v>1730.030122893428</v>
+        <v>1723.886083947779</v>
       </c>
       <c r="E116" t="n">
-        <v>2120.150188411723</v>
+        <v>2130.469983459235</v>
       </c>
       <c r="F116" t="n">
         <v>2238.267583228008</v>
@@ -7675,10 +7675,10 @@
         <v>2237.948195498859</v>
       </c>
       <c r="D117" t="n">
-        <v>1795.27185175826</v>
+        <v>1789.123980222514</v>
       </c>
       <c r="E117" t="n">
-        <v>2175.329592939719</v>
+        <v>2190.834338368736</v>
       </c>
       <c r="F117" t="n">
         <v>2237.948195498859</v>
@@ -7737,10 +7737,10 @@
         <v>2237.62880776971</v>
       </c>
       <c r="D118" t="n">
-        <v>1809.430456571402</v>
+        <v>1817.677137691463</v>
       </c>
       <c r="E118" t="n">
-        <v>2218.08485583048</v>
+        <v>2227.155398340751</v>
       </c>
       <c r="F118" t="n">
         <v>2237.62880776971</v>
@@ -7799,10 +7799,10 @@
         <v>2237.30942004056</v>
       </c>
       <c r="D119" t="n">
-        <v>1832.536356176627</v>
+        <v>1827.570856583123</v>
       </c>
       <c r="E119" t="n">
-        <v>2210.369679263161</v>
+        <v>2226.752637685511</v>
       </c>
       <c r="F119" t="n">
         <v>2237.30942004056</v>
@@ -7861,10 +7861,10 @@
         <v>2236.990032311411</v>
       </c>
       <c r="D120" t="n">
-        <v>1795.844190959326</v>
+        <v>1799.500287778027</v>
       </c>
       <c r="E120" t="n">
-        <v>2194.010186004628</v>
+        <v>2199.635895556286</v>
       </c>
       <c r="F120" t="n">
         <v>2236.990032311411</v>
@@ -7923,10 +7923,10 @@
         <v>2236.670644582262</v>
       </c>
       <c r="D121" t="n">
-        <v>1785.152235389594</v>
+        <v>1780.728047502082</v>
       </c>
       <c r="E121" t="n">
-        <v>2175.273996103743</v>
+        <v>2170.200867084113</v>
       </c>
       <c r="F121" t="n">
         <v>2236.670644582262</v>
@@ -7985,10 +7985,10 @@
         <v>2236.346564078609</v>
       </c>
       <c r="D122" t="n">
-        <v>1818.696634934794</v>
+        <v>1800.50932224137</v>
       </c>
       <c r="E122" t="n">
-        <v>2210.265746461831</v>
+        <v>2203.550368214909</v>
       </c>
       <c r="F122" t="n">
         <v>2236.346564078609</v>
@@ -8047,10 +8047,10 @@
         <v>2236.022483574956</v>
       </c>
       <c r="D123" t="n">
-        <v>1834.638059782539</v>
+        <v>1827.686538730711</v>
       </c>
       <c r="E123" t="n">
-        <v>2208.981721641653</v>
+        <v>2211.485681596152</v>
       </c>
       <c r="F123" t="n">
         <v>2236.022483574956</v>
@@ -8109,10 +8109,10 @@
         <v>2235.698403071303</v>
       </c>
       <c r="D124" t="n">
-        <v>1794.914432083778</v>
+        <v>1800.183466001278</v>
       </c>
       <c r="E124" t="n">
-        <v>2173.77871966068</v>
+        <v>2183.675946236692</v>
       </c>
       <c r="F124" t="n">
         <v>2235.698403071303</v>
@@ -8171,10 +8171,10 @@
         <v>2235.374322567649</v>
       </c>
       <c r="D125" t="n">
-        <v>1772.517587979786</v>
+        <v>1756.969230270551</v>
       </c>
       <c r="E125" t="n">
-        <v>2158.424438240595</v>
+        <v>2151.933421598871</v>
       </c>
       <c r="F125" t="n">
         <v>2235.374322567649</v>
@@ -8233,10 +8233,10 @@
         <v>2235.049824658888</v>
       </c>
       <c r="D126" t="n">
-        <v>1773.566688678511</v>
+        <v>1747.929779300586</v>
       </c>
       <c r="E126" t="n">
-        <v>2153.579892931331</v>
+        <v>2140.431908826202</v>
       </c>
       <c r="F126" t="n">
         <v>2235.049824658888</v>
@@ -8295,10 +8295,10 @@
         <v>2234.725326750126</v>
       </c>
       <c r="D127" t="n">
-        <v>1795.591685805868</v>
+        <v>1793.031181894002</v>
       </c>
       <c r="E127" t="n">
-        <v>2181.277483230532</v>
+        <v>2190.115831029276</v>
       </c>
       <c r="F127" t="n">
         <v>2234.725326750126</v>
@@ -8357,10 +8357,10 @@
         <v>2234.400828841364</v>
       </c>
       <c r="D128" t="n">
-        <v>1868.603933605888</v>
+        <v>1848.889713283639</v>
       </c>
       <c r="E128" t="n">
-        <v>2250.203320626452</v>
+        <v>2234.320758386638</v>
       </c>
       <c r="F128" t="n">
         <v>2234.400828841364</v>
@@ -8419,10 +8419,10 @@
         <v>2233.965908524664</v>
       </c>
       <c r="D129" t="n">
-        <v>1879.898733151619</v>
+        <v>1877.123562102806</v>
       </c>
       <c r="E129" t="n">
-        <v>2274.048917944021</v>
+        <v>2265.24459860166</v>
       </c>
       <c r="F129" t="n">
         <v>2233.965908524664</v>
@@ -8481,10 +8481,10 @@
         <v>2233.530988207964</v>
       </c>
       <c r="D130" t="n">
-        <v>1846.323869161137</v>
+        <v>1829.983710923078</v>
       </c>
       <c r="E130" t="n">
-        <v>2232.108962155381</v>
+        <v>2234.645889139413</v>
       </c>
       <c r="F130" t="n">
         <v>2233.530988207964</v>
@@ -8543,10 +8543,10 @@
         <v>2233.096067891263</v>
       </c>
       <c r="D131" t="n">
-        <v>1802.316534149747</v>
+        <v>1815.369078086446</v>
       </c>
       <c r="E131" t="n">
-        <v>2214.598848399149</v>
+        <v>2200.257647175371</v>
       </c>
       <c r="F131" t="n">
         <v>2233.096067891263</v>
@@ -8605,10 +8605,10 @@
         <v>2232.661147574563</v>
       </c>
       <c r="D132" t="n">
-        <v>1803.590713673464</v>
+        <v>1803.95687804149</v>
       </c>
       <c r="E132" t="n">
-        <v>2180.4080775033</v>
+        <v>2196.924654715075</v>
       </c>
       <c r="F132" t="n">
         <v>2232.661147574563</v>
@@ -8667,10 +8667,10 @@
         <v>2231.968394539796</v>
       </c>
       <c r="D133" t="n">
-        <v>1834.656907648443</v>
+        <v>1833.205583819566</v>
       </c>
       <c r="E133" t="n">
-        <v>2217.893462664088</v>
+        <v>2217.921269553117</v>
       </c>
       <c r="F133" t="n">
         <v>2231.968394539796</v>
@@ -8729,10 +8729,10 @@
         <v>2231.275641505029</v>
       </c>
       <c r="D134" t="n">
-        <v>1856.618479113671</v>
+        <v>1847.651334951212</v>
       </c>
       <c r="E134" t="n">
-        <v>2251.059403329029</v>
+        <v>2238.876633117365</v>
       </c>
       <c r="F134" t="n">
         <v>2231.275641505029</v>
@@ -8791,10 +8791,10 @@
         <v>2230.582888470262</v>
       </c>
       <c r="D135" t="n">
-        <v>1841.490839570591</v>
+        <v>1847.145311515336</v>
       </c>
       <c r="E135" t="n">
-        <v>2233.384427506836</v>
+        <v>2243.138897307678</v>
       </c>
       <c r="F135" t="n">
         <v>2230.582888470262</v>
@@ -8853,10 +8853,10 @@
         <v>2229.890135435496</v>
       </c>
       <c r="D136" t="n">
-        <v>1819.794588092558</v>
+        <v>1810.406708636442</v>
       </c>
       <c r="E136" t="n">
-        <v>2206.315846003606</v>
+        <v>2204.409617872784</v>
       </c>
       <c r="F136" t="n">
         <v>2229.890135435496</v>
@@ -8915,10 +8915,10 @@
         <v>2229.168547799311</v>
       </c>
       <c r="D137" t="n">
-        <v>1797.583544625396</v>
+        <v>1804.129311459688</v>
       </c>
       <c r="E137" t="n">
-        <v>2174.384078517895</v>
+        <v>2201.286689609122</v>
       </c>
       <c r="F137" t="n">
         <v>2229.168547799311</v>
@@ -8977,10 +8977,10 @@
         <v>2228.446960163126</v>
       </c>
       <c r="D138" t="n">
-        <v>1796.85061698396</v>
+        <v>1797.843122336487</v>
       </c>
       <c r="E138" t="n">
-        <v>2169.196135928733</v>
+        <v>2181.3577823194</v>
       </c>
       <c r="F138" t="n">
         <v>2228.446960163126</v>
@@ -9039,10 +9039,10 @@
         <v>2227.725372526942</v>
       </c>
       <c r="D139" t="n">
-        <v>1775.936553736747</v>
+        <v>1771.989928850573</v>
       </c>
       <c r="E139" t="n">
-        <v>2166.665507797862</v>
+        <v>2155.708279469629</v>
       </c>
       <c r="F139" t="n">
         <v>2227.725372526942</v>
@@ -9101,10 +9101,10 @@
         <v>2227.003784890757</v>
       </c>
       <c r="D140" t="n">
-        <v>1752.873433521876</v>
+        <v>1738.612395102581</v>
       </c>
       <c r="E140" t="n">
-        <v>2143.962328913866</v>
+        <v>2159.881014990753</v>
       </c>
       <c r="F140" t="n">
         <v>2227.003784890757</v>
@@ -9163,10 +9163,10 @@
         <v>2226.1085884888</v>
       </c>
       <c r="D141" t="n">
-        <v>1740.491951504873</v>
+        <v>1751.04981207312</v>
       </c>
       <c r="E141" t="n">
-        <v>2127.601894876505</v>
+        <v>2131.819342610695</v>
       </c>
       <c r="F141" t="n">
         <v>2226.1085884888</v>
@@ -9225,10 +9225,10 @@
         <v>2225.213392086844</v>
       </c>
       <c r="D142" t="n">
-        <v>1774.516733616734</v>
+        <v>1767.627355076119</v>
       </c>
       <c r="E142" t="n">
-        <v>2162.251562188387</v>
+        <v>2165.372127830225</v>
       </c>
       <c r="F142" t="n">
         <v>2225.213392086844</v>
@@ -9287,10 +9287,10 @@
         <v>2224.318195684888</v>
       </c>
       <c r="D143" t="n">
-        <v>1832.144667711015</v>
+        <v>1832.525995482698</v>
       </c>
       <c r="E143" t="n">
-        <v>2229.620795090984</v>
+        <v>2229.970976797985</v>
       </c>
       <c r="F143" t="n">
         <v>2224.318195684888</v>
@@ -9349,10 +9349,10 @@
         <v>2223.185895805741</v>
       </c>
       <c r="D144" t="n">
-        <v>1866.566840936959</v>
+        <v>1859.578338089488</v>
       </c>
       <c r="E144" t="n">
-        <v>2249.859120446721</v>
+        <v>2230.551501947505</v>
       </c>
       <c r="F144" t="n">
         <v>2223.185895805741</v>
@@ -9411,10 +9411,10 @@
         <v>2222.053595926595</v>
       </c>
       <c r="D145" t="n">
-        <v>1849.995501497536</v>
+        <v>1844.516933484744</v>
       </c>
       <c r="E145" t="n">
-        <v>2247.466727313167</v>
+        <v>2250.227011827651</v>
       </c>
       <c r="F145" t="n">
         <v>2222.053595926595</v>
@@ -9473,10 +9473,10 @@
         <v>2220.921296047449</v>
       </c>
       <c r="D146" t="n">
-        <v>1828.106043849289</v>
+        <v>1853.84662269756</v>
       </c>
       <c r="E146" t="n">
-        <v>2229.529831004608</v>
+        <v>2227.654072392573</v>
       </c>
       <c r="F146" t="n">
         <v>2220.921296047449</v>
@@ -9535,10 +9535,10 @@
         <v>2219.788996168302</v>
       </c>
       <c r="D147" t="n">
-        <v>1856.555287073508</v>
+        <v>1852.580055829084</v>
       </c>
       <c r="E147" t="n">
-        <v>2245.901610257502</v>
+        <v>2242.634751683355</v>
       </c>
       <c r="F147" t="n">
         <v>2219.788996168302</v>
@@ -9597,10 +9597,10 @@
         <v>2218.48540617874</v>
       </c>
       <c r="D148" t="n">
-        <v>1900.407880137796</v>
+        <v>1907.191931812776</v>
       </c>
       <c r="E148" t="n">
-        <v>2289.662210570808</v>
+        <v>2286.699916839959</v>
       </c>
       <c r="F148" t="n">
         <v>2218.48540617874</v>
@@ -9659,10 +9659,10 @@
         <v>2217.181816189178</v>
       </c>
       <c r="D149" t="n">
-        <v>1920.797287164467</v>
+        <v>1917.376743488164</v>
       </c>
       <c r="E149" t="n">
-        <v>2307.285421456895</v>
+        <v>2323.979332208157</v>
       </c>
       <c r="F149" t="n">
         <v>2217.181816189178</v>
@@ -9721,10 +9721,10 @@
         <v>2215.878226199616</v>
       </c>
       <c r="D150" t="n">
-        <v>1878.755190238505</v>
+        <v>1896.901495613423</v>
       </c>
       <c r="E150" t="n">
-        <v>2278.347695336072</v>
+        <v>2263.675592604714</v>
       </c>
       <c r="F150" t="n">
         <v>2215.878226199616</v>
@@ -9783,10 +9783,10 @@
         <v>2214.574636210054</v>
       </c>
       <c r="D151" t="n">
-        <v>1821.266155061538</v>
+        <v>1845.516079383061</v>
       </c>
       <c r="E151" t="n">
-        <v>2232.693000183875</v>
+        <v>2221.621912481458</v>
       </c>
       <c r="F151" t="n">
         <v>2214.574636210054</v>
@@ -9845,10 +9845,10 @@
         <v>2213.253895093077</v>
       </c>
       <c r="D152" t="n">
-        <v>1791.903798325537</v>
+        <v>1795.435018893255</v>
       </c>
       <c r="E152" t="n">
-        <v>2164.9178183196</v>
+        <v>2177.072494052763</v>
       </c>
       <c r="F152" t="n">
         <v>2213.253895093077</v>
@@ -9907,10 +9907,10 @@
         <v>2211.9331539761</v>
       </c>
       <c r="D153" t="n">
-        <v>1754.238232877643</v>
+        <v>1752.723180941704</v>
       </c>
       <c r="E153" t="n">
-        <v>2129.304925629285</v>
+        <v>2146.461299118603</v>
       </c>
       <c r="F153" t="n">
         <v>2211.9331539761</v>
@@ -9969,10 +9969,10 @@
         <v>2210.612412859123</v>
       </c>
       <c r="D154" t="n">
-        <v>1704.695358843409</v>
+        <v>1679.760231905963</v>
       </c>
       <c r="E154" t="n">
-        <v>2091.921769261909</v>
+        <v>2067.889234925471</v>
       </c>
       <c r="F154" t="n">
         <v>2210.612412859123</v>
@@ -10031,10 +10031,10 @@
         <v>2209.291671742146</v>
       </c>
       <c r="D155" t="n">
-        <v>1591.504804654398</v>
+        <v>1599.126721279468</v>
       </c>
       <c r="E155" t="n">
-        <v>1976.20414545887</v>
+        <v>1989.323451845448</v>
       </c>
       <c r="F155" t="n">
         <v>2209.291671742146</v>
@@ -10093,10 +10093,10 @@
         <v>2207.970930625168</v>
       </c>
       <c r="D156" t="n">
-        <v>1488.692698990325</v>
+        <v>1500.555984104958</v>
       </c>
       <c r="E156" t="n">
-        <v>1889.602779603081</v>
+        <v>1896.750170555241</v>
       </c>
       <c r="F156" t="n">
         <v>2207.970930625168</v>
@@ -10155,10 +10155,10 @@
         <v>2206.650189508191</v>
       </c>
       <c r="D157" t="n">
-        <v>1509.689962532747</v>
+        <v>1512.912005813286</v>
       </c>
       <c r="E157" t="n">
-        <v>1904.227610674643</v>
+        <v>1905.919518847325</v>
       </c>
       <c r="F157" t="n">
         <v>2206.650189508191</v>
@@ -10217,10 +10217,10 @@
         <v>2205.329448391215</v>
       </c>
       <c r="D158" t="n">
-        <v>1618.157847035677</v>
+        <v>1622.220925213291</v>
       </c>
       <c r="E158" t="n">
-        <v>2033.743959389604</v>
+        <v>1997.030381954754</v>
       </c>
       <c r="F158" t="n">
         <v>2205.329448391215</v>
@@ -10279,10 +10279,10 @@
         <v>2204.008707274237</v>
       </c>
       <c r="D159" t="n">
-        <v>1782.097764712967</v>
+        <v>1780.345723469999</v>
       </c>
       <c r="E159" t="n">
-        <v>2167.4790018458</v>
+        <v>2166.835181012483</v>
       </c>
       <c r="F159" t="n">
         <v>2204.008707274237</v>
@@ -10341,10 +10341,10 @@
         <v>2202.687966157261</v>
       </c>
       <c r="D160" t="n">
-        <v>1855.708102816458</v>
+        <v>1870.747017733647</v>
       </c>
       <c r="E160" t="n">
-        <v>2250.227986694186</v>
+        <v>2229.784653735496</v>
       </c>
       <c r="F160" t="n">
         <v>2202.687966157261</v>
@@ -10403,10 +10403,10 @@
         <v>2201.367225040283</v>
       </c>
       <c r="D161" t="n">
-        <v>1810.791610323565</v>
+        <v>1807.109297283447</v>
       </c>
       <c r="E161" t="n">
-        <v>2203.147458237162</v>
+        <v>2196.989716884451</v>
       </c>
       <c r="F161" t="n">
         <v>2201.367225040283</v>
@@ -10465,10 +10465,10 @@
         <v>2200.046483923306</v>
       </c>
       <c r="D162" t="n">
-        <v>1691.853792197398</v>
+        <v>1705.85393167347</v>
       </c>
       <c r="E162" t="n">
-        <v>2065.086666750728</v>
+        <v>2088.590155356528</v>
       </c>
       <c r="F162" t="n">
         <v>2200.046483923306</v>
@@ -10527,10 +10527,10 @@
         <v>2198.725742806329</v>
       </c>
       <c r="D163" t="n">
-        <v>1596.597826771887</v>
+        <v>1613.690299585357</v>
       </c>
       <c r="E163" t="n">
-        <v>2011.99044787981</v>
+        <v>2012.584529307918</v>
       </c>
       <c r="F163" t="n">
         <v>2198.725742806329</v>
@@ -10589,10 +10589,10 @@
         <v>2197.405001689352</v>
       </c>
       <c r="D164" t="n">
-        <v>1601.729586982335</v>
+        <v>1587.921939730834</v>
       </c>
       <c r="E164" t="n">
-        <v>1997.586933967766</v>
+        <v>1979.701218756037</v>
       </c>
       <c r="F164" t="n">
         <v>2197.405001689352</v>
@@ -10651,10 +10651,10 @@
         <v>2196.084260572375</v>
       </c>
       <c r="D165" t="n">
-        <v>1615.730341032287</v>
+        <v>1616.83537146036</v>
       </c>
       <c r="E165" t="n">
-        <v>1988.097878592486</v>
+        <v>1999.986285637784</v>
       </c>
       <c r="F165" t="n">
         <v>2196.084260572375</v>
@@ -10713,10 +10713,10 @@
         <v>2194.763519455398</v>
       </c>
       <c r="D166" t="n">
-        <v>1609.940268322981</v>
+        <v>1623.422583651067</v>
       </c>
       <c r="E166" t="n">
-        <v>2012.46630781527</v>
+        <v>2025.423560275484</v>
       </c>
       <c r="F166" t="n">
         <v>2194.763519455398</v>
@@ -10775,10 +10775,10 @@
         <v>2193.442778338421</v>
       </c>
       <c r="D167" t="n">
-        <v>1640.759354580818</v>
+        <v>1626.761143398633</v>
       </c>
       <c r="E167" t="n">
-        <v>2007.74889717089</v>
+        <v>2017.432075732087</v>
       </c>
       <c r="F167" t="n">
         <v>2193.442778338421</v>
@@ -10837,10 +10837,10 @@
         <v>2192.122037221444</v>
       </c>
       <c r="D168" t="n">
-        <v>1661.964716664533</v>
+        <v>1673.728586325205</v>
       </c>
       <c r="E168" t="n">
-        <v>2061.14745703315</v>
+        <v>2047.132744587276</v>
       </c>
       <c r="F168" t="n">
         <v>2192.122037221444</v>
@@ -10899,10 +10899,10 @@
         <v>2190.801296104467</v>
       </c>
       <c r="D169" t="n">
-        <v>1723.071993718065</v>
+        <v>1732.408557155563</v>
       </c>
       <c r="E169" t="n">
-        <v>2131.389017102404</v>
+        <v>2114.402106168666</v>
       </c>
       <c r="F169" t="n">
         <v>2190.801296104467</v>
@@ -10961,10 +10961,10 @@
         <v>2189.48055498749</v>
       </c>
       <c r="D170" t="n">
-        <v>1774.61174279997</v>
+        <v>1778.097650538714</v>
       </c>
       <c r="E170" t="n">
-        <v>2161.652218555409</v>
+        <v>2166.976628972838</v>
       </c>
       <c r="F170" t="n">
         <v>2189.48055498749</v>
@@ -11023,10 +11023,10 @@
         <v>2188.159813870513</v>
       </c>
       <c r="D171" t="n">
-        <v>1772.796476948267</v>
+        <v>1772.686151065942</v>
       </c>
       <c r="E171" t="n">
-        <v>2159.273123529688</v>
+        <v>2179.718826601413</v>
       </c>
       <c r="F171" t="n">
         <v>2188.159813870513</v>
@@ -11085,10 +11085,10 @@
         <v>2186.839072753536</v>
       </c>
       <c r="D172" t="n">
-        <v>1748.228708271442</v>
+        <v>1755.091606146734</v>
       </c>
       <c r="E172" t="n">
-        <v>2134.645658573021</v>
+        <v>2145.19883230754</v>
       </c>
       <c r="F172" t="n">
         <v>2186.839072753536</v>
@@ -11147,10 +11147,10 @@
         <v>2185.518331636558</v>
       </c>
       <c r="D173" t="n">
-        <v>1734.865627225524</v>
+        <v>1726.830533689467</v>
       </c>
       <c r="E173" t="n">
-        <v>2113.622632586318</v>
+        <v>2127.166989470886</v>
       </c>
       <c r="F173" t="n">
         <v>2185.518331636558</v>
@@ -11209,10 +11209,10 @@
         <v>2184.197590519581</v>
       </c>
       <c r="D174" t="n">
-        <v>1764.15882941359</v>
+        <v>1757.559385798604</v>
       </c>
       <c r="E174" t="n">
-        <v>2148.563104200447</v>
+        <v>2150.116156787593</v>
       </c>
       <c r="F174" t="n">
         <v>2184.197590519581</v>
@@ -11271,10 +11271,10 @@
         <v>2182.876849402604</v>
       </c>
       <c r="D175" t="n">
-        <v>1754.10368191755</v>
+        <v>1768.755745869223</v>
       </c>
       <c r="E175" t="n">
-        <v>2158.84297367546</v>
+        <v>2148.440014252866</v>
       </c>
       <c r="F175" t="n">
         <v>2182.876849402604</v>
@@ -11333,10 +11333,10 @@
         <v>2181.556108285627</v>
       </c>
       <c r="D176" t="n">
-        <v>1729.646366170126</v>
+        <v>1750.127474129164</v>
       </c>
       <c r="E176" t="n">
-        <v>2140.768908800719</v>
+        <v>2153.607674605601</v>
       </c>
       <c r="F176" t="n">
         <v>2181.556108285627</v>
@@ -11395,16 +11395,16 @@
         <v>2180.23536716865</v>
       </c>
       <c r="D177" t="n">
-        <v>1722.913155901281</v>
+        <v>1700.669735059094</v>
       </c>
       <c r="E177" t="n">
-        <v>2110.275958644832</v>
+        <v>2099.191348567083</v>
       </c>
       <c r="F177" t="n">
-        <v>2180.194217691675</v>
+        <v>2180.163101512484</v>
       </c>
       <c r="G177" t="n">
-        <v>2180.28403329874</v>
+        <v>2180.292966469831</v>
       </c>
       <c r="H177" t="n">
         <v>-272.4940786068055</v>
@@ -11457,16 +11457,16 @@
         <v>2178.914626051673</v>
       </c>
       <c r="D178" t="n">
-        <v>1695.30987841203</v>
+        <v>1704.917616252168</v>
       </c>
       <c r="E178" t="n">
-        <v>2089.700695480672</v>
+        <v>2090.748719055306</v>
       </c>
       <c r="F178" t="n">
-        <v>2178.676715694853</v>
+        <v>2178.636038633585</v>
       </c>
       <c r="G178" t="n">
-        <v>2179.170651251321</v>
+        <v>2179.181057158073</v>
       </c>
       <c r="H178" t="n">
         <v>-286.8419905032928</v>
@@ -11519,16 +11519,16 @@
         <v>2177.593884934696</v>
       </c>
       <c r="D179" t="n">
-        <v>1733.577786051663</v>
+        <v>1721.709057475917</v>
       </c>
       <c r="E179" t="n">
-        <v>2131.291135848906</v>
+        <v>2115.205786166143</v>
       </c>
       <c r="F179" t="n">
-        <v>2177.088461604645</v>
+        <v>2177.022923958805</v>
       </c>
       <c r="G179" t="n">
-        <v>2178.114330408107</v>
+        <v>2178.077717217902</v>
       </c>
       <c r="H179" t="n">
         <v>-249.2251650083592</v>
@@ -11581,16 +11581,16 @@
         <v>2176.273143817719</v>
       </c>
       <c r="D180" t="n">
-        <v>1787.487566753727</v>
+        <v>1794.454970909499</v>
       </c>
       <c r="E180" t="n">
-        <v>2182.408350448481</v>
+        <v>2171.205086526059</v>
       </c>
       <c r="F180" t="n">
-        <v>2175.486802752867</v>
+        <v>2175.358834165349</v>
       </c>
       <c r="G180" t="n">
-        <v>2177.092878272426</v>
+        <v>2177.157708201445</v>
       </c>
       <c r="H180" t="n">
         <v>-190.0693911648105</v>
@@ -11643,16 +11643,16 @@
         <v>2174.952402700742</v>
       </c>
       <c r="D181" t="n">
-        <v>1824.777709815469</v>
+        <v>1817.81440811507</v>
       </c>
       <c r="E181" t="n">
-        <v>2215.49851959752</v>
+        <v>2199.717949197859</v>
       </c>
       <c r="F181" t="n">
-        <v>2173.817344341132</v>
+        <v>2173.677041024749</v>
       </c>
       <c r="G181" t="n">
-        <v>2176.214601650314</v>
+        <v>2176.147716160934</v>
       </c>
       <c r="H181" t="n">
         <v>-163.6356733040676</v>
@@ -11705,16 +11705,16 @@
         <v>2173.631661583765</v>
       </c>
       <c r="D182" t="n">
-        <v>1792.590549644231</v>
+        <v>1788.243205516085</v>
       </c>
       <c r="E182" t="n">
-        <v>2186.851359501227</v>
+        <v>2183.284840381517</v>
       </c>
       <c r="F182" t="n">
-        <v>2172.028056887234</v>
+        <v>2171.900359674909</v>
       </c>
       <c r="G182" t="n">
-        <v>2175.368092630662</v>
+        <v>2175.261401871659</v>
       </c>
       <c r="H182" t="n">
         <v>-186.8357661927787</v>
@@ -11767,16 +11767,16 @@
         <v>2172.310920466788</v>
       </c>
       <c r="D183" t="n">
-        <v>1751.911111757251</v>
+        <v>1751.214537574151</v>
       </c>
       <c r="E183" t="n">
-        <v>2148.015500237318</v>
+        <v>2136.940567643408</v>
       </c>
       <c r="F183" t="n">
-        <v>2170.192026710657</v>
+        <v>2170.0522452534</v>
       </c>
       <c r="G183" t="n">
-        <v>2174.578600572551</v>
+        <v>2174.401386002864</v>
       </c>
       <c r="H183" t="n">
         <v>-223.6383001004922</v>
@@ -11829,16 +11829,16 @@
         <v>2170.990179349811</v>
       </c>
       <c r="D184" t="n">
-        <v>1749.289820564342</v>
+        <v>1751.711896104623</v>
       </c>
       <c r="E184" t="n">
-        <v>2145.765392811797</v>
+        <v>2138.83514027513</v>
       </c>
       <c r="F184" t="n">
-        <v>2168.206093786379</v>
+        <v>2168.151065553852</v>
       </c>
       <c r="G184" t="n">
-        <v>2173.810206025996</v>
+        <v>2173.541965485995</v>
       </c>
       <c r="H184" t="n">
         <v>-230.9334302509262</v>
@@ -11891,16 +11891,16 @@
         <v>2169.669438232834</v>
       </c>
       <c r="D185" t="n">
-        <v>1790.662570706017</v>
+        <v>1759.943717885348</v>
       </c>
       <c r="E185" t="n">
-        <v>2158.691557392173</v>
+        <v>2160.487263919889</v>
       </c>
       <c r="F185" t="n">
-        <v>2166.384496709239</v>
+        <v>2166.289603309128</v>
       </c>
       <c r="G185" t="n">
-        <v>2173.093900504309</v>
+        <v>2172.769729635034</v>
       </c>
       <c r="H185" t="n">
         <v>-207.2262203907742</v>
@@ -11953,16 +11953,16 @@
         <v>2168.348697115857</v>
       </c>
       <c r="D186" t="n">
-        <v>1787.475558725584</v>
+        <v>1775.942310410212</v>
       </c>
       <c r="E186" t="n">
-        <v>2194.172265677478</v>
+        <v>2171.051847898818</v>
       </c>
       <c r="F186" t="n">
-        <v>2164.572042755369</v>
+        <v>2164.309223052687</v>
       </c>
       <c r="G186" t="n">
-        <v>2172.51278658212</v>
+        <v>2171.981602066561</v>
       </c>
       <c r="H186" t="n">
         <v>-186.9286293290403</v>
@@ -12015,16 +12015,16 @@
         <v>2167.02795599888</v>
       </c>
       <c r="D187" t="n">
-        <v>1778.128153235543</v>
+        <v>1780.434936656737</v>
       </c>
       <c r="E187" t="n">
-        <v>2167.331595695663</v>
+        <v>2178.320254958305</v>
       </c>
       <c r="F187" t="n">
-        <v>2162.582141306906</v>
+        <v>2162.265700040579</v>
       </c>
       <c r="G187" t="n">
-        <v>2171.97449413577</v>
+        <v>2171.320562068315</v>
       </c>
       <c r="H187" t="n">
         <v>-194.1163471768473</v>
@@ -12077,16 +12077,16 @@
         <v>2165.707214881902</v>
       </c>
       <c r="D188" t="n">
-        <v>1767.259355383803</v>
+        <v>1742.950341388792</v>
       </c>
       <c r="E188" t="n">
-        <v>2134.428016469139</v>
+        <v>2155.762278712223</v>
       </c>
       <c r="F188" t="n">
-        <v>2160.67404950093</v>
+        <v>2160.150358311811</v>
       </c>
       <c r="G188" t="n">
-        <v>2171.362860906465</v>
+        <v>2170.730013334396</v>
       </c>
       <c r="H188" t="n">
         <v>-217.3555707150896</v>
@@ -12139,16 +12139,16 @@
         <v>2164.386473764926</v>
       </c>
       <c r="D189" t="n">
-        <v>1737.265714734602</v>
+        <v>1733.93171819544</v>
       </c>
       <c r="E189" t="n">
-        <v>2117.657921799069</v>
+        <v>2125.323043017657</v>
       </c>
       <c r="F189" t="n">
-        <v>2158.689545599883</v>
+        <v>2158.10034026738</v>
       </c>
       <c r="G189" t="n">
-        <v>2170.65587876854</v>
+        <v>2169.967515632901</v>
       </c>
       <c r="H189" t="n">
         <v>-233.3920837586851</v>
@@ -12201,16 +12201,16 @@
         <v>2163.065732647949</v>
       </c>
       <c r="D190" t="n">
-        <v>1726.030994878679</v>
+        <v>1721.692882255099</v>
       </c>
       <c r="E190" t="n">
-        <v>2119.917920502819</v>
+        <v>2115.81285579176</v>
       </c>
       <c r="F190" t="n">
-        <v>2156.599574540158</v>
+        <v>2156.096359481863</v>
       </c>
       <c r="G190" t="n">
-        <v>2170.054932530376</v>
+        <v>2169.312252210389</v>
       </c>
       <c r="H190" t="n">
         <v>-241.3029019382828</v>
@@ -12263,16 +12263,16 @@
         <v>2161.744991530971</v>
       </c>
       <c r="D191" t="n">
-        <v>1701.776152674862</v>
+        <v>1695.512662504676</v>
       </c>
       <c r="E191" t="n">
-        <v>2077.769470606479</v>
+        <v>2105.880172328511</v>
       </c>
       <c r="F191" t="n">
-        <v>2154.595091091558</v>
+        <v>2153.733634842392</v>
       </c>
       <c r="G191" t="n">
-        <v>2169.643113190229</v>
+        <v>2168.696530193391</v>
       </c>
       <c r="H191" t="n">
         <v>-258.4426601492855</v>
@@ -12325,16 +12325,16 @@
         <v>2160.424250413994</v>
       </c>
       <c r="D192" t="n">
-        <v>1674.312872584717</v>
+        <v>1675.653039266656</v>
       </c>
       <c r="E192" t="n">
-        <v>2071.448360493661</v>
+        <v>2065.000276785809</v>
       </c>
       <c r="F192" t="n">
-        <v>2152.500581152776</v>
+        <v>2151.645783767558</v>
       </c>
       <c r="G192" t="n">
-        <v>2168.927798322964</v>
+        <v>2168.005480117951</v>
       </c>
       <c r="H192" t="n">
         <v>-285.9570193269739</v>
@@ -12387,16 +12387,16 @@
         <v>2159.103509297017</v>
       </c>
       <c r="D193" t="n">
-        <v>1666.851217094033</v>
+        <v>1670.97889209042</v>
       </c>
       <c r="E193" t="n">
-        <v>2053.102863253556</v>
+        <v>2049.860402211861</v>
       </c>
       <c r="F193" t="n">
-        <v>2150.221516413699</v>
+        <v>2149.658381943171</v>
       </c>
       <c r="G193" t="n">
-        <v>2168.470171785102</v>
+        <v>2167.298155353754</v>
       </c>
       <c r="H193" t="n">
         <v>-296.1077684410356</v>
@@ -12449,16 +12449,16 @@
         <v>2157.78276818004</v>
       </c>
       <c r="D194" t="n">
-        <v>1706.303765433781</v>
+        <v>1688.923078487298</v>
       </c>
       <c r="E194" t="n">
-        <v>2105.56510458622</v>
+        <v>2083.908797537144</v>
       </c>
       <c r="F194" t="n">
-        <v>2147.814376422236</v>
+        <v>2147.585221522952</v>
       </c>
       <c r="G194" t="n">
-        <v>2167.834347348808</v>
+        <v>2166.617416334605</v>
       </c>
       <c r="H194" t="n">
         <v>-264.5876958199855</v>
@@ -12511,16 +12511,16 @@
         <v>2156.462027063063</v>
       </c>
       <c r="D195" t="n">
-        <v>1742.188435886362</v>
+        <v>1750.986782492412</v>
       </c>
       <c r="E195" t="n">
-        <v>2149.110651486679</v>
+        <v>2145.511335856093</v>
       </c>
       <c r="F195" t="n">
-        <v>2145.762232814867</v>
+        <v>2145.326064656715</v>
       </c>
       <c r="G195" t="n">
-        <v>2167.131095258614</v>
+        <v>2166.027101799752</v>
       </c>
       <c r="H195" t="n">
         <v>-206.9876528296218</v>
@@ -12573,16 +12573,16 @@
         <v>2155.141285946086</v>
       </c>
       <c r="D196" t="n">
-        <v>1786.707447071119</v>
+        <v>1796.714011653304</v>
       </c>
       <c r="E196" t="n">
-        <v>2181.42266003498</v>
+        <v>2183.925233206177</v>
       </c>
       <c r="F196" t="n">
-        <v>2143.660838612703</v>
+        <v>2143.313558540206</v>
       </c>
       <c r="G196" t="n">
-        <v>2166.575324997048</v>
+        <v>2165.58029660393</v>
       </c>
       <c r="H196" t="n">
         <v>-167.4490098054267</v>
@@ -12635,16 +12635,16 @@
         <v>2153.820544829109</v>
       </c>
       <c r="D197" t="n">
-        <v>1786.214581916613</v>
+        <v>1785.092837026968</v>
       </c>
       <c r="E197" t="n">
-        <v>2182.844737285249</v>
+        <v>2186.354227081538</v>
       </c>
       <c r="F197" t="n">
-        <v>2141.400259438674</v>
+        <v>2141.202667790754</v>
       </c>
       <c r="G197" t="n">
-        <v>2166.268020336181</v>
+        <v>2164.931512013291</v>
       </c>
       <c r="H197" t="n">
         <v>-168.2346474047307</v>
@@ -12697,16 +12697,16 @@
         <v>2152.499803712132</v>
       </c>
       <c r="D198" t="n">
-        <v>1771.827627347252</v>
+        <v>1766.170449988283</v>
       </c>
       <c r="E198" t="n">
-        <v>2179.762944270744</v>
+        <v>2153.524398640028</v>
       </c>
       <c r="F198" t="n">
-        <v>2138.803185071959</v>
+        <v>2138.863351954652</v>
       </c>
       <c r="G198" t="n">
-        <v>2165.9562854103</v>
+        <v>2164.51377996219</v>
       </c>
       <c r="H198" t="n">
         <v>-183.1104089492842</v>
@@ -12759,16 +12759,16 @@
         <v>2151.179062595155</v>
       </c>
       <c r="D199" t="n">
-        <v>1773.984626580845</v>
+        <v>1779.299754571541</v>
       </c>
       <c r="E199" t="n">
-        <v>2158.489360837825</v>
+        <v>2183.983530183466</v>
       </c>
       <c r="F199" t="n">
-        <v>2136.650619590488</v>
+        <v>2136.396878261035</v>
       </c>
       <c r="G199" t="n">
-        <v>2165.783823777369</v>
+        <v>2164.589422742721</v>
       </c>
       <c r="H199" t="n">
         <v>-171.0307830751023</v>
@@ -12821,16 +12821,16 @@
         <v>2149.858321478178</v>
       </c>
       <c r="D200" t="n">
-        <v>1825.559419557548</v>
+        <v>1814.202794191024</v>
       </c>
       <c r="E200" t="n">
-        <v>2212.450326908094</v>
+        <v>2209.239347751782</v>
       </c>
       <c r="F200" t="n">
-        <v>2134.179575140083</v>
+        <v>2133.861231943604</v>
       </c>
       <c r="G200" t="n">
-        <v>2165.400061232427</v>
+        <v>2164.049570939412</v>
       </c>
       <c r="H200" t="n">
         <v>-129.8550902441369</v>
@@ -12883,16 +12883,16 @@
         <v>2148.537580361201</v>
       </c>
       <c r="D201" t="n">
-        <v>1843.959371443738</v>
+        <v>1846.129035576991</v>
       </c>
       <c r="E201" t="n">
-        <v>2246.679506468644</v>
+        <v>2252.447612887793</v>
       </c>
       <c r="F201" t="n">
-        <v>2131.69258892162</v>
+        <v>2131.426660108575</v>
       </c>
       <c r="G201" t="n">
-        <v>2165.148449141057</v>
+        <v>2163.422274464991</v>
       </c>
       <c r="H201" t="n">
         <v>-101.7950680062011</v>
@@ -12945,16 +12945,16 @@
         <v>2147.216839244224</v>
       </c>
       <c r="D202" t="n">
-        <v>1820.8380608363</v>
+        <v>1822.689591294567</v>
       </c>
       <c r="E202" t="n">
-        <v>2231.397619835015</v>
+        <v>2227.507405329972</v>
       </c>
       <c r="F202" t="n">
-        <v>2129.448966926844</v>
+        <v>2128.879117772804</v>
       </c>
       <c r="G202" t="n">
-        <v>2164.68159043669</v>
+        <v>2163.150610321141</v>
       </c>
       <c r="H202" t="n">
         <v>-122.4543865832811</v>
@@ -13007,16 +13007,16 @@
         <v>2145.896098127247</v>
       </c>
       <c r="D203" t="n">
-        <v>1769.74310841855</v>
+        <v>1768.951893459804</v>
       </c>
       <c r="E203" t="n">
-        <v>2159.765438567578</v>
+        <v>2157.544824054648</v>
       </c>
       <c r="F203" t="n">
-        <v>2127.121276334075</v>
+        <v>2126.167241501917</v>
       </c>
       <c r="G203" t="n">
-        <v>2164.137999449199</v>
+        <v>2162.79330511808</v>
       </c>
       <c r="H203" t="n">
         <v>-178.4125588262908</v>
@@ -13069,16 +13069,16 @@
         <v>2144.575357010269</v>
       </c>
       <c r="D204" t="n">
-        <v>1732.606627728194</v>
+        <v>1719.545849094861</v>
       </c>
       <c r="E204" t="n">
-        <v>2110.6876347185</v>
+        <v>2111.106574617112</v>
       </c>
       <c r="F204" t="n">
-        <v>2124.809163678408</v>
+        <v>2123.592218340136</v>
       </c>
       <c r="G204" t="n">
-        <v>2164.124145536303</v>
+        <v>2162.315432511536</v>
       </c>
       <c r="H204" t="n">
         <v>-228.6324991631133</v>
@@ -13131,16 +13131,16 @@
         <v>2143.254615893293</v>
       </c>
       <c r="D205" t="n">
-        <v>1688.365883916661</v>
+        <v>1681.630916948979</v>
       </c>
       <c r="E205" t="n">
-        <v>2084.113821636427</v>
+        <v>2072.76040099479</v>
       </c>
       <c r="F205" t="n">
-        <v>2122.307679260001</v>
+        <v>2120.788804199123</v>
       </c>
       <c r="G205" t="n">
-        <v>2164.216474777711</v>
+        <v>2162.254724958811</v>
       </c>
       <c r="H205" t="n">
         <v>-261.7098998453268</v>
@@ -13193,16 +13193,16 @@
         <v>2141.933874776315</v>
       </c>
       <c r="D206" t="n">
-        <v>1636.641890248399</v>
+        <v>1626.177056774196</v>
       </c>
       <c r="E206" t="n">
-        <v>2018.109124641123</v>
+        <v>2026.042252440264</v>
       </c>
       <c r="F206" t="n">
-        <v>2120.029505504461</v>
+        <v>2118.328630916276</v>
       </c>
       <c r="G206" t="n">
-        <v>2163.561594138685</v>
+        <v>2161.891301074689</v>
       </c>
       <c r="H206" t="n">
         <v>-310.9959812787678</v>
@@ -13255,16 +13255,16 @@
         <v>2140.613133659338</v>
       </c>
       <c r="D207" t="n">
-        <v>1553.856753341812</v>
+        <v>1552.683045860325</v>
       </c>
       <c r="E207" t="n">
-        <v>1932.228809056633</v>
+        <v>1930.016970527585</v>
       </c>
       <c r="F207" t="n">
-        <v>2117.43152226919</v>
+        <v>2115.402251107785</v>
       </c>
       <c r="G207" t="n">
-        <v>2163.154145310155</v>
+        <v>2161.473193119739</v>
       </c>
       <c r="H207" t="n">
         <v>-401.5514058845793</v>
@@ -13317,16 +13317,16 @@
         <v>2139.292392542362</v>
       </c>
       <c r="D208" t="n">
-        <v>1451.18958071377</v>
+        <v>1439.897924740241</v>
       </c>
       <c r="E208" t="n">
-        <v>1842.265526881666</v>
+        <v>1843.366174892013</v>
       </c>
       <c r="F208" t="n">
-        <v>2114.77901858108</v>
+        <v>2113.096806451595</v>
       </c>
       <c r="G208" t="n">
-        <v>2162.74414701443</v>
+        <v>2161.091528070311</v>
       </c>
       <c r="H208" t="n">
         <v>-494.7864784175104</v>
@@ -13379,16 +13379,16 @@
         <v>2137.971651425384</v>
       </c>
       <c r="D209" t="n">
-        <v>1427.832263055159</v>
+        <v>1432.391476579852</v>
       </c>
       <c r="E209" t="n">
-        <v>1820.812632808455</v>
+        <v>1830.599233667956</v>
       </c>
       <c r="F209" t="n">
-        <v>2112.326020356879</v>
+        <v>2110.011070588028</v>
       </c>
       <c r="G209" t="n">
-        <v>2162.22686944625</v>
+        <v>2160.863474230674</v>
       </c>
       <c r="H209" t="n">
         <v>-509.6519838653011</v>
@@ -13441,16 +13441,16 @@
         <v>2136.650910308407</v>
       </c>
       <c r="D210" t="n">
-        <v>1534.076991398788</v>
+        <v>1523.972127111563</v>
       </c>
       <c r="E210" t="n">
-        <v>1916.664547094319</v>
+        <v>1931.934469786844</v>
       </c>
       <c r="F210" t="n">
-        <v>2109.958935717443</v>
+        <v>2107.023239994372</v>
       </c>
       <c r="G210" t="n">
-        <v>2162.215020346453</v>
+        <v>2160.88772041982</v>
       </c>
       <c r="H210" t="n">
         <v>-409.1046042502016</v>
@@ -13503,16 +13503,16 @@
         <v>2135.33016919143</v>
       </c>
       <c r="D211" t="n">
-        <v>1675.480658395828</v>
+        <v>1679.455294465663</v>
       </c>
       <c r="E211" t="n">
-        <v>2073.425661134265</v>
+        <v>2077.60967341865</v>
       </c>
       <c r="F211" t="n">
-        <v>2107.499948253656</v>
+        <v>2104.637291190242</v>
       </c>
       <c r="G211" t="n">
-        <v>2162.058765017556</v>
+        <v>2160.776864087718</v>
       </c>
       <c r="H211" t="n">
         <v>-254.6732839825971</v>
@@ -13565,16 +13565,16 @@
         <v>2134.009428074453</v>
       </c>
       <c r="D212" t="n">
-        <v>1778.262236874953</v>
+        <v>1780.256037230392</v>
       </c>
       <c r="E212" t="n">
-        <v>2166.767472903794</v>
+        <v>2165.957398331119</v>
       </c>
       <c r="F212" t="n">
-        <v>2105.334355857589</v>
+        <v>2102.178391756921</v>
       </c>
       <c r="G212" t="n">
-        <v>2161.587900846472</v>
+        <v>2160.827686749082</v>
       </c>
       <c r="H212" t="n">
         <v>-159.4871214758444</v>
@@ -13627,16 +13627,16 @@
         <v>2132.688686957476</v>
       </c>
       <c r="D213" t="n">
-        <v>1747.385200330561</v>
+        <v>1744.398745091519</v>
       </c>
       <c r="E213" t="n">
-        <v>2141.231416603682</v>
+        <v>2168.392271901521</v>
       </c>
       <c r="F213" t="n">
-        <v>2102.94475761403</v>
+        <v>2099.567530708166</v>
       </c>
       <c r="G213" t="n">
-        <v>2160.89170373584</v>
+        <v>2160.546674108483</v>
       </c>
       <c r="H213" t="n">
         <v>-184.3110191796859</v>
@@ -13689,16 +13689,16 @@
         <v>2131.367945840499</v>
       </c>
       <c r="D214" t="n">
-        <v>1616.736726685519</v>
+        <v>1652.693344467167</v>
       </c>
       <c r="E214" t="n">
-        <v>2035.041437634155</v>
+        <v>2039.196025765102</v>
       </c>
       <c r="F214" t="n">
-        <v>2100.6982396965</v>
+        <v>2096.780721097019</v>
       </c>
       <c r="G214" t="n">
-        <v>2160.556371816241</v>
+        <v>2160.381779648047</v>
       </c>
       <c r="H214" t="n">
         <v>-287.3945022924166</v>
@@ -13751,16 +13751,16 @@
         <v>2130.047204723522</v>
       </c>
       <c r="D215" t="n">
-        <v>1562.749328387076</v>
+        <v>1548.676796364019</v>
       </c>
       <c r="E215" t="n">
-        <v>1965.383978319958</v>
+        <v>1940.170207969684</v>
       </c>
       <c r="F215" t="n">
-        <v>2098.285796680695</v>
+        <v>2094.40658831095</v>
       </c>
       <c r="G215" t="n">
-        <v>2160.195242080033</v>
+        <v>2160.343309690973</v>
       </c>
       <c r="H215" t="n">
         <v>-377.8323191745814</v>
@@ -13813,16 +13813,16 @@
         <v>2128.726463606545</v>
       </c>
       <c r="D216" t="n">
-        <v>1526.75672062803</v>
+        <v>1519.833124304454</v>
       </c>
       <c r="E216" t="n">
-        <v>1910.160983985967</v>
+        <v>1920.790073763298</v>
       </c>
       <c r="F216" t="n">
-        <v>2095.711507301017</v>
+        <v>2092.044562894419</v>
       </c>
       <c r="G216" t="n">
-        <v>2160.113507397886</v>
+        <v>2160.068294758832</v>
       </c>
       <c r="H216" t="n">
         <v>-406.5255893037129</v>
@@ -13875,16 +13875,16 @@
         <v>2127.405722489568</v>
       </c>
       <c r="D217" t="n">
-        <v>1544.115268612351</v>
+        <v>1531.228386726979</v>
       </c>
       <c r="E217" t="n">
-        <v>1936.771448882426</v>
+        <v>1933.088033557244</v>
       </c>
       <c r="F217" t="n">
-        <v>2093.054469978529</v>
+        <v>2089.506116079202</v>
       </c>
       <c r="G217" t="n">
-        <v>2160.270115764518</v>
+        <v>2159.291698033584</v>
       </c>
       <c r="H217" t="n">
         <v>-394.8338384946261</v>
@@ -13937,16 +13937,16 @@
         <v>2126.084981372591</v>
       </c>
       <c r="D218" t="n">
-        <v>1541.66526067116</v>
+        <v>1535.001756325458</v>
       </c>
       <c r="E218" t="n">
-        <v>1935.017106603321</v>
+        <v>1946.881917069313</v>
       </c>
       <c r="F218" t="n">
-        <v>2090.417730408888</v>
+        <v>2086.78235182788</v>
       </c>
       <c r="G218" t="n">
-        <v>2160.876323906093</v>
+        <v>2158.972554327836</v>
       </c>
       <c r="H218" t="n">
         <v>-383.0502209810526</v>
@@ -13999,16 +13999,16 @@
         <v>2124.764240255613</v>
       </c>
       <c r="D219" t="n">
-        <v>1551.686375428248</v>
+        <v>1546.350191549403</v>
       </c>
       <c r="E219" t="n">
-        <v>1943.86852954656</v>
+        <v>1956.639193740472</v>
       </c>
       <c r="F219" t="n">
-        <v>2087.602269371515</v>
+        <v>2084.263454851165</v>
       </c>
       <c r="G219" t="n">
-        <v>2160.871076863429</v>
+        <v>2158.861111035963</v>
       </c>
       <c r="H219" t="n">
         <v>-374.1069599835695</v>
@@ -14061,16 +14061,16 @@
         <v>2123.443499138637</v>
       </c>
       <c r="D220" t="n">
-        <v>1583.641178407044</v>
+        <v>1590.31257141724</v>
       </c>
       <c r="E220" t="n">
-        <v>1980.346876271652</v>
+        <v>1987.610930347838</v>
       </c>
       <c r="F220" t="n">
-        <v>2085.156814161847</v>
+        <v>2081.314259569794</v>
       </c>
       <c r="G220" t="n">
-        <v>2161.344323802398</v>
+        <v>2158.770046056215</v>
       </c>
       <c r="H220" t="n">
         <v>-341.2307261049521</v>
@@ -14123,16 +14123,16 @@
         <v>2122.12275802166</v>
       </c>
       <c r="D221" t="n">
-        <v>1636.661929627543</v>
+        <v>1642.51985800456</v>
       </c>
       <c r="E221" t="n">
-        <v>2058.6283829744</v>
+        <v>2041.681229987217</v>
       </c>
       <c r="F221" t="n">
-        <v>2081.98219464366</v>
+        <v>2078.1565850929</v>
       </c>
       <c r="G221" t="n">
-        <v>2161.338275595744</v>
+        <v>2159.243816272934</v>
       </c>
       <c r="H221" t="n">
         <v>-279.1189682936298</v>
@@ -14185,16 +14185,16 @@
         <v>2120.802016904682</v>
       </c>
       <c r="D222" t="n">
-        <v>1688.035823377642</v>
+        <v>1705.079741779064</v>
       </c>
       <c r="E222" t="n">
-        <v>2093.117213782955</v>
+        <v>2108.075027993422</v>
       </c>
       <c r="F222" t="n">
-        <v>2079.360462337171</v>
+        <v>2074.979415954112</v>
       </c>
       <c r="G222" t="n">
-        <v>2161.455546816189</v>
+        <v>2158.916064706923</v>
       </c>
       <c r="H222" t="n">
         <v>-223.7770191302275</v>
@@ -14247,16 +14247,16 @@
         <v>2119.481275787706</v>
       </c>
       <c r="D223" t="n">
-        <v>1699.088132800715</v>
+        <v>1697.989444895466</v>
       </c>
       <c r="E223" t="n">
-        <v>2113.333766841531</v>
+        <v>2095.157023104742</v>
       </c>
       <c r="F223" t="n">
-        <v>2076.364677009504</v>
+        <v>2072.27581507188</v>
       </c>
       <c r="G223" t="n">
-        <v>2161.36583019204</v>
+        <v>2158.342117327713</v>
       </c>
       <c r="H223" t="n">
         <v>-212.469436617762</v>
@@ -14309,16 +14309,16 @@
         <v>2118.160534670728</v>
       </c>
       <c r="D224" t="n">
-        <v>1671.765231374308</v>
+        <v>1687.203797288769</v>
       </c>
       <c r="E224" t="n">
-        <v>2082.374795212197</v>
+        <v>2065.972282943121</v>
       </c>
       <c r="F224" t="n">
-        <v>2073.579193847418</v>
+        <v>2069.625407435337</v>
       </c>
       <c r="G224" t="n">
-        <v>2161.581731729434</v>
+        <v>2158.392762225033</v>
       </c>
       <c r="H224" t="n">
         <v>-237.1333788419333</v>
@@ -14371,16 +14371,16 @@
         <v>2116.839793553751</v>
       </c>
       <c r="D225" t="n">
-        <v>1653.538901229872</v>
+        <v>1666.333326796559</v>
       </c>
       <c r="E225" t="n">
-        <v>2073.424950369394</v>
+        <v>2063.558656986051</v>
       </c>
       <c r="F225" t="n">
-        <v>2070.888187515111</v>
+        <v>2066.629236634525</v>
       </c>
       <c r="G225" t="n">
-        <v>2161.715314033978</v>
+        <v>2158.307008935833</v>
       </c>
       <c r="H225" t="n">
         <v>-254.1486362475228</v>
@@ -14433,16 +14433,16 @@
         <v>2115.519052436774</v>
       </c>
       <c r="D226" t="n">
-        <v>1689.253809841219</v>
+        <v>1666.833935746634</v>
       </c>
       <c r="E226" t="n">
-        <v>2103.695114053989</v>
+        <v>2081.386544976061</v>
       </c>
       <c r="F226" t="n">
-        <v>2068.677994805208</v>
+        <v>2063.762657128814</v>
       </c>
       <c r="G226" t="n">
-        <v>2161.738219538138</v>
+        <v>2158.796017785755</v>
       </c>
       <c r="H226" t="n">
         <v>-239.386604387586</v>
@@ -14495,16 +14495,16 @@
         <v>2114.198311319797</v>
       </c>
       <c r="D227" t="n">
-        <v>1699.408805896665</v>
+        <v>1687.740695651754</v>
       </c>
       <c r="E227" t="n">
-        <v>2109.034583227406</v>
+        <v>2102.73703652033</v>
       </c>
       <c r="F227" t="n">
-        <v>2065.465508000063</v>
+        <v>2060.735100236334</v>
       </c>
       <c r="G227" t="n">
-        <v>2162.004595543123</v>
+        <v>2158.935840580846</v>
       </c>
       <c r="H227" t="n">
         <v>-217.5067771878725</v>
@@ -14557,16 +14557,16 @@
         <v>2112.87757020282</v>
       </c>
       <c r="D228" t="n">
-        <v>1687.661625177188</v>
+        <v>1680.735230324277</v>
       </c>
       <c r="E228" t="n">
-        <v>2093.297360494259</v>
+        <v>2071.389198844076</v>
       </c>
       <c r="F228" t="n">
-        <v>2062.981903023491</v>
+        <v>2058.08295664037</v>
       </c>
       <c r="G228" t="n">
-        <v>2162.777442274403</v>
+        <v>2158.656280072846</v>
       </c>
       <c r="H228" t="n">
         <v>-227.0132815986665</v>
@@ -14619,16 +14619,16 @@
         <v>2111.556829085843</v>
       </c>
       <c r="D229" t="n">
-        <v>1640.911914650921</v>
+        <v>1641.741402893759</v>
       </c>
       <c r="E229" t="n">
-        <v>2053.364837955652</v>
+        <v>2049.061067507671</v>
       </c>
       <c r="F229" t="n">
-        <v>2060.529623759669</v>
+        <v>2055.362389543915</v>
       </c>
       <c r="G229" t="n">
-        <v>2162.556053920446</v>
+        <v>2158.425083314587</v>
       </c>
       <c r="H229" t="n">
         <v>-265.775014950623</v>
@@ -14681,16 +14681,16 @@
         <v>2110.236087968866</v>
       </c>
       <c r="D230" t="n">
-        <v>1621.731978674625</v>
+        <v>1622.748946703459</v>
       </c>
       <c r="E230" t="n">
-        <v>2038.001376822466</v>
+        <v>2021.153911382375</v>
       </c>
       <c r="F230" t="n">
-        <v>2057.767561758845</v>
+        <v>2051.999202125408</v>
       </c>
       <c r="G230" t="n">
-        <v>2162.337037661634</v>
+        <v>2158.177743854566</v>
       </c>
       <c r="H230" t="n">
         <v>-288.0503910670081</v>
@@ -14743,16 +14743,16 @@
         <v>2108.915346851889</v>
       </c>
       <c r="D231" t="n">
-        <v>1632.241000825133</v>
+        <v>1640.450475219362</v>
       </c>
       <c r="E231" t="n">
-        <v>2059.980584511038</v>
+        <v>2060.32489612342</v>
       </c>
       <c r="F231" t="n">
-        <v>2054.95719621466</v>
+        <v>2049.033488046671</v>
       </c>
       <c r="G231" t="n">
-        <v>2162.132693177603</v>
+        <v>2158.025150248477</v>
       </c>
       <c r="H231" t="n">
         <v>-259.0717793325939</v>
@@ -14805,16 +14805,16 @@
         <v>2107.594605734912</v>
       </c>
       <c r="D232" t="n">
-        <v>1717.812125211298</v>
+        <v>1690.424372383136</v>
       </c>
       <c r="E232" t="n">
-        <v>2124.7744801307</v>
+        <v>2100.188549097042</v>
       </c>
       <c r="F232" t="n">
-        <v>2052.065842606793</v>
+        <v>2046.281807825166</v>
       </c>
       <c r="G232" t="n">
-        <v>2162.721336683946</v>
+        <v>2158.851564547542</v>
       </c>
       <c r="H232" t="n">
         <v>-199.6106867145073</v>
@@ -14867,16 +14867,16 @@
         <v>2106.273864617935</v>
       </c>
       <c r="D233" t="n">
-        <v>1748.025105541827</v>
+        <v>1741.937456297687</v>
       </c>
       <c r="E233" t="n">
-        <v>2147.119118488625</v>
+        <v>2145.462042545766</v>
       </c>
       <c r="F233" t="n">
-        <v>2049.273609975768</v>
+        <v>2043.696242573607</v>
       </c>
       <c r="G233" t="n">
-        <v>2162.724790749272</v>
+        <v>2159.451171922361</v>
       </c>
       <c r="H233" t="n">
         <v>-164.3972460954007</v>
@@ -14929,16 +14929,16 @@
         <v>2104.953123500958</v>
       </c>
       <c r="D234" t="n">
-        <v>1720.354714565881</v>
+        <v>1724.259428549998</v>
       </c>
       <c r="E234" t="n">
-        <v>2133.129184984857</v>
+        <v>2127.314802871231</v>
       </c>
       <c r="F234" t="n">
-        <v>2046.353634955108</v>
+        <v>2040.450233051193</v>
       </c>
       <c r="G234" t="n">
-        <v>2162.968636183795</v>
+        <v>2159.736638316408</v>
       </c>
       <c r="H234" t="n">
         <v>-180.1958004128261</v>
@@ -14991,16 +14991,16 @@
         <v>2103.632382383981</v>
       </c>
       <c r="D235" t="n">
-        <v>1672.616929118254</v>
+        <v>1693.660984288717</v>
       </c>
       <c r="E235" t="n">
-        <v>2068.759233075323</v>
+        <v>2086.076898527301</v>
       </c>
       <c r="F235" t="n">
-        <v>2043.678820397622</v>
+        <v>2038.398070109028</v>
       </c>
       <c r="G235" t="n">
-        <v>2163.531250467972</v>
+        <v>2160.291491903924</v>
       </c>
       <c r="H235" t="n">
         <v>-218.3648301084523</v>
@@ -15053,16 +15053,16 @@
         <v>2102.311641267003</v>
       </c>
       <c r="D236" t="n">
-        <v>1655.466840964423</v>
+        <v>1651.551257748385</v>
       </c>
       <c r="E236" t="n">
-        <v>2093.337790928763</v>
+        <v>2072.157145622969</v>
       </c>
       <c r="F236" t="n">
-        <v>2041.090921719374</v>
+        <v>2036.456579526502</v>
       </c>
       <c r="G236" t="n">
-        <v>2163.340521460248</v>
+        <v>2161.044759563501</v>
       </c>
       <c r="H236" t="n">
         <v>-232.53903143857</v>
@@ -15115,16 +15115,16 @@
         <v>2100.990900150026</v>
       </c>
       <c r="D237" t="n">
-        <v>1680.951542960201</v>
+        <v>1671.650100915472</v>
       </c>
       <c r="E237" t="n">
-        <v>2106.57900903465</v>
+        <v>2111.414791526704</v>
       </c>
       <c r="F237" t="n">
-        <v>2037.818865589317</v>
+        <v>2034.10062520784</v>
       </c>
       <c r="G237" t="n">
-        <v>2163.88562674574</v>
+        <v>2161.608164570084</v>
       </c>
       <c r="H237" t="n">
         <v>-212.3508421793239</v>
@@ -15177,16 +15177,16 @@
         <v>2099.670159033049</v>
       </c>
       <c r="D238" t="n">
-        <v>1726.500725586702</v>
+        <v>1696.374189869709</v>
       </c>
       <c r="E238" t="n">
-        <v>2112.931458704572</v>
+        <v>2117.141114735472</v>
       </c>
       <c r="F238" t="n">
-        <v>2035.255986847188</v>
+        <v>2030.860560780576</v>
       </c>
       <c r="G238" t="n">
-        <v>2164.684132179294</v>
+        <v>2161.397818457301</v>
       </c>
       <c r="H238" t="n">
         <v>-188.7686771325946</v>
@@ -15239,16 +15239,16 @@
         <v>2098.349417916073</v>
       </c>
       <c r="D239" t="n">
-        <v>1708.035598040172</v>
+        <v>1710.552588825516</v>
       </c>
       <c r="E239" t="n">
-        <v>2126.924057064212</v>
+        <v>2101.893198597302</v>
       </c>
       <c r="F239" t="n">
-        <v>2032.687638692417</v>
+        <v>2028.832323821392</v>
       </c>
       <c r="G239" t="n">
-        <v>2165.057364010474</v>
+        <v>2161.816027531515</v>
       </c>
       <c r="H239" t="n">
         <v>-190.9306963138623</v>
@@ -15301,16 +15301,16 @@
         <v>2097.028676799095</v>
       </c>
       <c r="D240" t="n">
-        <v>1676.334643041695</v>
+        <v>1672.506647683639</v>
       </c>
       <c r="E240" t="n">
-        <v>2087.588551707535</v>
+        <v>2092.364137156727</v>
       </c>
       <c r="F240" t="n">
-        <v>2029.810671350004</v>
+        <v>2025.973975570697</v>
       </c>
       <c r="G240" t="n">
-        <v>2165.876242998444</v>
+        <v>2161.93650454673</v>
       </c>
       <c r="H240" t="n">
         <v>-213.2267955584986</v>
@@ -15363,16 +15363,16 @@
         <v>2095.707935682118</v>
       </c>
       <c r="D241" t="n">
-        <v>1639.651656587082</v>
+        <v>1636.636202478918</v>
       </c>
       <c r="E241" t="n">
-        <v>2081.783933921231</v>
+        <v>2080.304511256055</v>
       </c>
       <c r="F241" t="n">
-        <v>2027.121640969303</v>
+        <v>2022.821321103076</v>
       </c>
       <c r="G241" t="n">
-        <v>2166.530771144486</v>
+        <v>2161.953441619663</v>
       </c>
       <c r="H241" t="n">
         <v>-231.4943764451152</v>
@@ -15425,16 +15425,16 @@
         <v>2094.387194565141</v>
       </c>
       <c r="D242" t="n">
-        <v>1638.497593443458</v>
+        <v>1656.381866717834</v>
       </c>
       <c r="E242" t="n">
-        <v>2049.305439010532</v>
+        <v>2070.768335845784</v>
       </c>
       <c r="F242" t="n">
-        <v>2023.941417879835</v>
+        <v>2019.576151078018</v>
       </c>
       <c r="G242" t="n">
-        <v>2166.816680997506</v>
+        <v>2162.351383985521</v>
       </c>
       <c r="H242" t="n">
         <v>-239.7076891564895</v>
@@ -15487,16 +15487,16 @@
         <v>2093.066453448164</v>
       </c>
       <c r="D243" t="n">
-        <v>1625.086378629937</v>
+        <v>1630.092422799194</v>
       </c>
       <c r="E243" t="n">
-        <v>2048.455588386309</v>
+        <v>2050.436025131059</v>
       </c>
       <c r="F243" t="n">
-        <v>2021.237231147758</v>
+        <v>2016.776154440016</v>
       </c>
       <c r="G243" t="n">
-        <v>2167.812610645843</v>
+        <v>2162.610948289792</v>
       </c>
       <c r="H243" t="n">
         <v>-254.2149493237251</v>
@@ -15549,16 +15549,16 @@
         <v>2091.745712331187</v>
       </c>
       <c r="D244" t="n">
-        <v>1604.265437962978</v>
+        <v>1598.688533430334</v>
       </c>
       <c r="E244" t="n">
-        <v>2015.24694869324</v>
+        <v>2019.930231288579</v>
       </c>
       <c r="F244" t="n">
-        <v>2018.14689052582</v>
+        <v>2013.499770201352</v>
       </c>
       <c r="G244" t="n">
-        <v>2167.949813090187</v>
+        <v>2163.168082036895</v>
       </c>
       <c r="H244" t="n">
         <v>-281.2866796429295</v>
@@ -15611,16 +15611,16 @@
         <v>2090.42497121421</v>
       </c>
       <c r="D245" t="n">
-        <v>1580.860840374162</v>
+        <v>1568.442300079236</v>
       </c>
       <c r="E245" t="n">
-        <v>2002.136448639131</v>
+        <v>1993.700714047316</v>
       </c>
       <c r="F245" t="n">
-        <v>2014.976600565351</v>
+        <v>2010.434935223765</v>
       </c>
       <c r="G245" t="n">
-        <v>2168.016284012177</v>
+        <v>2163.764735224025</v>
       </c>
       <c r="H245" t="n">
         <v>-297.0529574932517</v>
@@ -15673,16 +15673,16 @@
         <v>2089.104230097233</v>
       </c>
       <c r="D246" t="n">
-        <v>1604.611661345115</v>
+        <v>1602.738418446956</v>
       </c>
       <c r="E246" t="n">
-        <v>2016.609369065146</v>
+        <v>2030.11274001204</v>
       </c>
       <c r="F246" t="n">
-        <v>2012.03704696083</v>
+        <v>2007.277338529788</v>
       </c>
       <c r="G246" t="n">
-        <v>2168.650732895646</v>
+        <v>2163.940992842049</v>
       </c>
       <c r="H246" t="n">
         <v>-273.1810265015997</v>
@@ -15735,16 +15735,16 @@
         <v>2087.783488980256</v>
       </c>
       <c r="D247" t="n">
-        <v>1672.460874783392</v>
+        <v>1658.399636810574</v>
       </c>
       <c r="E247" t="n">
-        <v>2088.112221160068</v>
+        <v>2099.050093842439</v>
       </c>
       <c r="F247" t="n">
-        <v>2008.816391272579</v>
+        <v>2004.779252815337</v>
       </c>
       <c r="G247" t="n">
-        <v>2169.572684497122</v>
+        <v>2164.058485382662</v>
       </c>
       <c r="H247" t="n">
         <v>-217.2447274212203</v>
@@ -15797,16 +15797,16 @@
         <v>2086.462747863279</v>
       </c>
       <c r="D248" t="n">
-        <v>1697.912939833556</v>
+        <v>1706.779849909278</v>
       </c>
       <c r="E248" t="n">
-        <v>2124.438539323183</v>
+        <v>2128.528670450628</v>
       </c>
       <c r="F248" t="n">
-        <v>2005.888475852622</v>
+        <v>2002.144034892997</v>
       </c>
       <c r="G248" t="n">
-        <v>2169.438444887261</v>
+        <v>2164.245679489615</v>
       </c>
       <c r="H248" t="n">
         <v>-171.5484082965973</v>
@@ -15859,16 +15859,16 @@
         <v>2085.142006746302</v>
       </c>
       <c r="D249" t="n">
-        <v>1726.136063576181</v>
+        <v>1714.480392980499</v>
       </c>
       <c r="E249" t="n">
-        <v>2143.600175336768</v>
+        <v>2124.39948507518</v>
       </c>
       <c r="F249" t="n">
-        <v>2002.592450548868</v>
+        <v>1999.518079903659</v>
       </c>
       <c r="G249" t="n">
-        <v>2170.189761063046</v>
+        <v>2165.077735745612</v>
       </c>
       <c r="H249" t="n">
         <v>-165.7729511978354</v>
@@ -15921,16 +15921,16 @@
         <v>2083.821265629325</v>
       </c>
       <c r="D250" t="n">
-        <v>1687.069438887749</v>
+        <v>1688.382444282771</v>
       </c>
       <c r="E250" t="n">
-        <v>2116.957721700635</v>
+        <v>2119.464795064655</v>
       </c>
       <c r="F250" t="n">
-        <v>1999.711276408744</v>
+        <v>1996.114690989283</v>
       </c>
       <c r="G250" t="n">
-        <v>2171.011107997835</v>
+        <v>2165.844628181309</v>
       </c>
       <c r="H250" t="n">
         <v>-181.5129976399631</v>
@@ -15983,16 +15983,16 @@
         <v>2082.500524512348</v>
       </c>
       <c r="D251" t="n">
-        <v>1693.727398390825</v>
+        <v>1693.090790823642</v>
       </c>
       <c r="E251" t="n">
-        <v>2119.920092890749</v>
+        <v>2118.153798729762</v>
       </c>
       <c r="F251" t="n">
-        <v>1997.115196031124</v>
+        <v>1992.954127953948</v>
       </c>
       <c r="G251" t="n">
-        <v>2172.672906043553</v>
+        <v>2165.661199600176</v>
       </c>
       <c r="H251" t="n">
         <v>-176.0076547741962</v>
@@ -16045,16 +16045,16 @@
         <v>2081.179783395371</v>
       </c>
       <c r="D252" t="n">
-        <v>1715.405571073883</v>
+        <v>1723.810583796715</v>
       </c>
       <c r="E252" t="n">
-        <v>2173.408844638442</v>
+        <v>2159.14493366204</v>
       </c>
       <c r="F252" t="n">
-        <v>1994.027522051563</v>
+        <v>1989.112781513764</v>
       </c>
       <c r="G252" t="n">
-        <v>2173.464418335299</v>
+        <v>2166.995571547306</v>
       </c>
       <c r="H252" t="n">
         <v>-137.7475895821013</v>
@@ -16107,16 +16107,16 @@
         <v>2079.859042278394</v>
       </c>
       <c r="D253" t="n">
-        <v>1763.158239914854</v>
+        <v>1768.026124412244</v>
       </c>
       <c r="E253" t="n">
-        <v>2199.945890704847</v>
+        <v>2199.423475407338</v>
       </c>
       <c r="F253" t="n">
-        <v>1990.955222139694</v>
+        <v>1985.871096222359</v>
       </c>
       <c r="G253" t="n">
-        <v>2173.556550956711</v>
+        <v>2168.315709620572</v>
       </c>
       <c r="H253" t="n">
         <v>-103.7139549518885</v>
@@ -16169,16 +16169,16 @@
         <v>2078.538301161417</v>
       </c>
       <c r="D254" t="n">
-        <v>1751.547308217788</v>
+        <v>1728.609580342647</v>
       </c>
       <c r="E254" t="n">
-        <v>2184.289682755684</v>
+        <v>2193.450849156499</v>
       </c>
       <c r="F254" t="n">
-        <v>1988.377590131104</v>
+        <v>1982.985790224682</v>
       </c>
       <c r="G254" t="n">
-        <v>2174.131510617527</v>
+        <v>2169.019208600079</v>
       </c>
       <c r="H254" t="n">
         <v>-115.1201599032265</v>
@@ -16231,16 +16231,16 @@
         <v>2077.217560044439</v>
       </c>
       <c r="D255" t="n">
-        <v>1689.345018066074</v>
+        <v>1694.216728478214</v>
       </c>
       <c r="E255" t="n">
-        <v>2132.006215056676</v>
+        <v>2121.437763470893</v>
       </c>
       <c r="F255" t="n">
-        <v>1986.18849773654</v>
+        <v>1979.930351343121</v>
       </c>
       <c r="G255" t="n">
-        <v>2174.017476982929</v>
+        <v>2169.621273046456</v>
       </c>
       <c r="H255" t="n">
         <v>-167.7405183729848</v>
@@ -16293,16 +16293,16 @@
         <v>2075.896818927462</v>
       </c>
       <c r="D256" t="n">
-        <v>1634.531965519356</v>
+        <v>1633.39118247933</v>
       </c>
       <c r="E256" t="n">
-        <v>2079.619597607262</v>
+        <v>2059.916417990285</v>
       </c>
       <c r="F256" t="n">
-        <v>1982.963247920736</v>
+        <v>1976.283870903833</v>
       </c>
       <c r="G256" t="n">
-        <v>2174.072180422732</v>
+        <v>2170.161654439541</v>
       </c>
       <c r="H256" t="n">
         <v>-221.3051211224244</v>
@@ -16355,16 +16355,16 @@
         <v>2074.576077810485</v>
       </c>
       <c r="D257" t="n">
-        <v>1610.284323239763</v>
+        <v>1593.840803002353</v>
       </c>
       <c r="E257" t="n">
-        <v>2033.756697588118</v>
+        <v>2035.909652662638</v>
       </c>
       <c r="F257" t="n">
-        <v>1979.342895981981</v>
+        <v>1973.013647919818</v>
       </c>
       <c r="G257" t="n">
-        <v>2173.832662580719</v>
+        <v>2170.969381705573</v>
       </c>
       <c r="H257" t="n">
         <v>-255.8982990076614</v>
@@ -16417,16 +16417,16 @@
         <v>2073.255336693508</v>
       </c>
       <c r="D258" t="n">
-        <v>1550.118413624119</v>
+        <v>1537.902241490542</v>
       </c>
       <c r="E258" t="n">
-        <v>1999.82736462621</v>
+        <v>1990.350584523893</v>
       </c>
       <c r="F258" t="n">
-        <v>1976.259391857806</v>
+        <v>1970.068349946898</v>
       </c>
       <c r="G258" t="n">
-        <v>2174.545818829988</v>
+        <v>2172.141522010582</v>
       </c>
       <c r="H258" t="n">
         <v>-299.2294298366806</v>
@@ -16479,16 +16479,16 @@
         <v>2071.934595576531</v>
       </c>
       <c r="D259" t="n">
-        <v>1459.346897196063</v>
+        <v>1463.283484058316</v>
       </c>
       <c r="E259" t="n">
-        <v>1912.593334387619</v>
+        <v>1903.00899032815</v>
       </c>
       <c r="F259" t="n">
-        <v>1972.6139103532</v>
+        <v>1967.2319980169</v>
       </c>
       <c r="G259" t="n">
-        <v>2175.760327074718</v>
+        <v>2172.009514721371</v>
       </c>
       <c r="H259" t="n">
         <v>-383.133934541776</v>
@@ -16541,16 +16541,16 @@
         <v>2070.613854459554</v>
       </c>
       <c r="D260" t="n">
-        <v>1370.515677768968</v>
+        <v>1378.849116680852</v>
       </c>
       <c r="E260" t="n">
-        <v>1807.947038330299</v>
+        <v>1800.989416786969</v>
       </c>
       <c r="F260" t="n">
-        <v>1970.024430268036</v>
+        <v>1963.348642243495</v>
       </c>
       <c r="G260" t="n">
-        <v>2176.819323665038</v>
+        <v>2173.061669923417</v>
       </c>
       <c r="H260" t="n">
         <v>-481.5783849069707</v>
@@ -16603,16 +16603,16 @@
         <v>2069.293113342577</v>
       </c>
       <c r="D261" t="n">
-        <v>1331.413608847104</v>
+        <v>1334.634139332172</v>
       </c>
       <c r="E261" t="n">
-        <v>1778.522109185557</v>
+        <v>1773.798038739246</v>
       </c>
       <c r="F261" t="n">
-        <v>1966.958128928208</v>
+        <v>1960.247219684428</v>
       </c>
       <c r="G261" t="n">
-        <v>2177.484636454401</v>
+        <v>2174.142930381588</v>
       </c>
       <c r="H261" t="n">
         <v>-515.6221634446333</v>
@@ -16665,16 +16665,16 @@
         <v>2067.9723722256</v>
       </c>
       <c r="D262" t="n">
-        <v>1404.708246686299</v>
+        <v>1407.183929516412</v>
       </c>
       <c r="E262" t="n">
-        <v>1856.256227471897</v>
+        <v>1849.939882761885</v>
       </c>
       <c r="F262" t="n">
-        <v>1964.035079419742</v>
+        <v>1957.172637191412</v>
       </c>
       <c r="G262" t="n">
-        <v>2178.121570737645</v>
+        <v>2175.176812258575</v>
       </c>
       <c r="H262" t="n">
         <v>-434.0081160370501</v>
@@ -16727,16 +16727,16 @@
         <v>2066.651631108623</v>
       </c>
       <c r="D263" t="n">
-        <v>1553.721634015794</v>
+        <v>1572.488597304881</v>
       </c>
       <c r="E263" t="n">
-        <v>2002.920192498711</v>
+        <v>1998.5580649924</v>
       </c>
       <c r="F263" t="n">
-        <v>1961.593380054488</v>
+        <v>1952.922140001181</v>
       </c>
       <c r="G263" t="n">
-        <v>2178.876274380826</v>
+        <v>2175.652257185555</v>
       </c>
       <c r="H263" t="n">
         <v>-281.0613115307573</v>
@@ -16789,16 +16789,16 @@
         <v>2065.330889991646</v>
       </c>
       <c r="D264" t="n">
-        <v>1677.821804046079</v>
+        <v>1670.1805306353</v>
       </c>
       <c r="E264" t="n">
-        <v>2116.794526646587</v>
+        <v>2129.250031325976</v>
       </c>
       <c r="F264" t="n">
-        <v>1958.840825045373</v>
+        <v>1949.157177695618</v>
       </c>
       <c r="G264" t="n">
-        <v>2178.858716075611</v>
+        <v>2174.77493083306</v>
       </c>
       <c r="H264" t="n">
         <v>-168.085862983399</v>
@@ -16851,16 +16851,16 @@
         <v>2064.010148874669</v>
       </c>
       <c r="D265" t="n">
-        <v>1668.984532054721</v>
+        <v>1658.271307417117</v>
       </c>
       <c r="E265" t="n">
-        <v>2130.701834312973</v>
+        <v>2119.278637453291</v>
       </c>
       <c r="F265" t="n">
-        <v>1955.600696324167</v>
+        <v>1946.165254860767</v>
       </c>
       <c r="G265" t="n">
-        <v>2177.766237053749</v>
+        <v>2175.163126318875</v>
       </c>
       <c r="H265" t="n">
         <v>-171.7472852276375</v>
@@ -16913,16 +16913,16 @@
         <v>2062.689407757692</v>
       </c>
       <c r="D266" t="n">
-        <v>1573.777001196969</v>
+        <v>1570.529168417532</v>
       </c>
       <c r="E266" t="n">
-        <v>2012.744118101782</v>
+        <v>2028.230052241091</v>
       </c>
       <c r="F266" t="n">
-        <v>1952.118758551648</v>
+        <v>1943.350275487458</v>
       </c>
       <c r="G266" t="n">
-        <v>2177.362140239204</v>
+        <v>2175.702688021383</v>
       </c>
       <c r="H266" t="n">
         <v>-267.3927655120119</v>
@@ -16975,16 +16975,16 @@
         <v>2061.368666640714</v>
       </c>
       <c r="D267" t="n">
-        <v>1477.058969887683</v>
+        <v>1459.021473278598</v>
       </c>
       <c r="E267" t="n">
-        <v>1923.557084793556</v>
+        <v>1920.345346248941</v>
       </c>
       <c r="F267" t="n">
-        <v>1948.700470742093</v>
+        <v>1940.399294704087</v>
       </c>
       <c r="G267" t="n">
-        <v>2178.34078116334</v>
+        <v>2176.15028930705</v>
       </c>
       <c r="H267" t="n">
         <v>-365.8219375834595</v>
@@ -17037,16 +17037,16 @@
         <v>2060.047925523738</v>
       </c>
       <c r="D268" t="n">
-        <v>1417.677715232814</v>
+        <v>1398.513405181523</v>
       </c>
       <c r="E268" t="n">
-        <v>1876.197528399069</v>
+        <v>1874.508575344058</v>
       </c>
       <c r="F268" t="n">
-        <v>1946.094703068469</v>
+        <v>1937.722757267633</v>
       </c>
       <c r="G268" t="n">
-        <v>2178.026394031373</v>
+        <v>2178.421011330625</v>
       </c>
       <c r="H268" t="n">
         <v>-405.6577604422239</v>
@@ -17099,16 +17099,16 @@
         <v>2058.72718440676</v>
       </c>
       <c r="D269" t="n">
-        <v>1420.621006395216</v>
+        <v>1436.163948897794</v>
       </c>
       <c r="E269" t="n">
-        <v>1895.533626400274</v>
+        <v>1886.401101407099</v>
       </c>
       <c r="F269" t="n">
-        <v>1942.734292489045</v>
+        <v>1933.67879821817</v>
       </c>
       <c r="G269" t="n">
-        <v>2177.79631626296</v>
+        <v>2178.78188563724</v>
       </c>
       <c r="H269" t="n">
         <v>-397.790168780287</v>
@@ -17161,16 +17161,16 @@
         <v>2057.406443289784</v>
       </c>
       <c r="D270" t="n">
-        <v>1441.362904818629</v>
+        <v>1441.388401662049</v>
       </c>
       <c r="E270" t="n">
-        <v>1903.145692861547</v>
+        <v>1889.411941277014</v>
       </c>
       <c r="F270" t="n">
-        <v>1939.234433173495</v>
+        <v>1930.548080911419</v>
       </c>
       <c r="G270" t="n">
-        <v>2178.682109423994</v>
+        <v>2179.521687209548</v>
       </c>
       <c r="H270" t="n">
         <v>-384.3974847206919</v>
@@ -17223,16 +17223,16 @@
         <v>2056.085702172807</v>
       </c>
       <c r="D271" t="n">
-        <v>1439.172489004028</v>
+        <v>1428.105586462694</v>
       </c>
       <c r="E271" t="n">
-        <v>1906.245348569093</v>
+        <v>1903.421106891368</v>
       </c>
       <c r="F271" t="n">
-        <v>1936.163235295273</v>
+        <v>1927.685690713626</v>
       </c>
       <c r="G271" t="n">
-        <v>2180.328196171652</v>
+        <v>2180.058550652838</v>
       </c>
       <c r="H271" t="n">
         <v>-376.6704308891044</v>
@@ -17285,16 +17285,16 @@
         <v>2054.764961055829</v>
       </c>
       <c r="D272" t="n">
-        <v>1462.424080296121</v>
+        <v>1480.324839497878</v>
       </c>
       <c r="E272" t="n">
-        <v>1937.720047962243</v>
+        <v>1943.782892769526</v>
       </c>
       <c r="F272" t="n">
-        <v>1932.256134277383</v>
+        <v>1924.697791079644</v>
       </c>
       <c r="G272" t="n">
-        <v>2180.230084703978</v>
+        <v>2180.527250762558</v>
       </c>
       <c r="H272" t="n">
         <v>-349.7020789611504</v>
@@ -17347,16 +17347,16 @@
         <v>2053.444219938852</v>
       </c>
       <c r="D273" t="n">
-        <v>1544.894374483478</v>
+        <v>1523.57854704961</v>
       </c>
       <c r="E273" t="n">
-        <v>1995.006819456356</v>
+        <v>1996.0598224006</v>
       </c>
       <c r="F273" t="n">
-        <v>1929.175087343321</v>
+        <v>1921.644240144127</v>
       </c>
       <c r="G273" t="n">
-        <v>2180.596754622267</v>
+        <v>2181.573061223727</v>
       </c>
       <c r="H273" t="n">
         <v>-291.1150389371021</v>
@@ -17409,16 +17409,16 @@
         <v>2052.123478821875</v>
       </c>
       <c r="D274" t="n">
-        <v>1582.897926500136</v>
+        <v>1593.732271346211</v>
       </c>
       <c r="E274" t="n">
-        <v>2066.779829032355</v>
+        <v>2047.018366693536</v>
       </c>
       <c r="F274" t="n">
-        <v>1926.630654557196</v>
+        <v>1919.267268903673</v>
       </c>
       <c r="G274" t="n">
-        <v>2181.7198586874</v>
+        <v>2182.805377886522</v>
       </c>
       <c r="H274" t="n">
         <v>-231.0713324918612</v>
@@ -17471,16 +17471,16 @@
         <v>2050.802737704898</v>
       </c>
       <c r="D275" t="n">
-        <v>1589.622191329616</v>
+        <v>1599.055202448768</v>
       </c>
       <c r="E275" t="n">
-        <v>2078.855043411141</v>
+        <v>2066.600273980619</v>
       </c>
       <c r="F275" t="n">
-        <v>1923.860735426416</v>
+        <v>1915.418088200436</v>
       </c>
       <c r="G275" t="n">
-        <v>2181.801126868954</v>
+        <v>2183.293733674561</v>
       </c>
       <c r="H275" t="n">
         <v>-210.9054928952696</v>
@@ -17533,16 +17533,16 @@
         <v>2049.481996587921</v>
       </c>
       <c r="D276" t="n">
-        <v>1586.992228950985</v>
+        <v>1575.719668294296</v>
       </c>
       <c r="E276" t="n">
-        <v>2052.274685778233</v>
+        <v>2058.146500934508</v>
       </c>
       <c r="F276" t="n">
-        <v>1920.842162817364</v>
+        <v>1913.67918049757</v>
       </c>
       <c r="G276" t="n">
-        <v>2182.479538616734</v>
+        <v>2183.629576689152</v>
       </c>
       <c r="H276" t="n">
         <v>-231.9479967395161</v>
@@ -17595,16 +17595,16 @@
         <v>2048.161255470944</v>
       </c>
       <c r="D277" t="n">
-        <v>1560.448480571897</v>
+        <v>1552.602142170706</v>
       </c>
       <c r="E277" t="n">
-        <v>2021.209727907475</v>
+        <v>2021.560741931674</v>
       </c>
       <c r="F277" t="n">
-        <v>1917.54688253925</v>
+        <v>1910.555543903656</v>
       </c>
       <c r="G277" t="n">
-        <v>2183.43896375687</v>
+        <v>2183.97993491612</v>
       </c>
       <c r="H277" t="n">
         <v>-253.3929265932801</v>
@@ -17657,16 +17657,16 @@
         <v>2046.840514353967</v>
       </c>
       <c r="D278" t="n">
-        <v>1568.71732420694</v>
+        <v>1546.462334946676</v>
       </c>
       <c r="E278" t="n">
-        <v>2044.407240213404</v>
+        <v>2046.233406814604</v>
       </c>
       <c r="F278" t="n">
-        <v>1914.11893107547</v>
+        <v>1908.014364814306</v>
       </c>
       <c r="G278" t="n">
-        <v>2184.542729488875</v>
+        <v>2185.465512708218</v>
       </c>
       <c r="H278" t="n">
         <v>-243.7872304380933</v>
@@ -17719,16 +17719,16 @@
         <v>2045.51977323699</v>
       </c>
       <c r="D279" t="n">
-        <v>1593.393400972045</v>
+        <v>1584.302344845927</v>
       </c>
       <c r="E279" t="n">
-        <v>2076.662252341512</v>
+        <v>2066.425040676289</v>
       </c>
       <c r="F279" t="n">
-        <v>1910.629087037584</v>
+        <v>1905.167487430318</v>
       </c>
       <c r="G279" t="n">
-        <v>2185.265995799992</v>
+        <v>2185.760507347726</v>
       </c>
       <c r="H279" t="n">
         <v>-219.9296942167267</v>
